--- a/netlists/1cell schematics vs. netlist data comparison.xlsx
+++ b/netlists/1cell schematics vs. netlist data comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zOob\Documents\SB REU\LTspice\netlists &amp; associated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2129CC3E-C9C2-43F8-A718-0FBE16276926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC6190-D174-4041-AF33-926C206A5FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB265C7C-5E77-47C3-96A3-865866B97BAC}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>V(-1)</t>
-  </si>
-  <si>
-    <t>V(1)</t>
-  </si>
-  <si>
     <t>Netlist</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Volts</t>
+  </si>
+  <si>
+    <t>V(3) (output)</t>
+  </si>
+  <si>
+    <t>V(1) (input)</t>
   </si>
 </sst>
 </file>
@@ -420,35 +420,37 @@
   <dimension ref="A1:N412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.77734375" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M1" s="2">
         <f xml:space="preserve"> MAX(J2:J412)</f>
-        <v>5.3141999999999946E-4</v>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -456,19 +458,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" s="2">
         <f xml:space="preserve"> ABS(F3-B3)</f>
@@ -496,7 +498,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="0" xml:space="preserve"> ABS(F4-B4)</f>
-        <v>6.4732700000000025E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -504,7 +506,7 @@
         <v>1.9531249921956902E-15</v>
       </c>
       <c r="B4" s="1">
-        <v>2.5842729999999998E-16</v>
+        <v>3.2316000000000001E-16</v>
       </c>
       <c r="C4" s="1">
         <v>2.6041669999999999E-7</v>
@@ -520,7 +522,7 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>8.6478000000000042E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -528,7 +530,7 @@
         <v>3.9062499843913898E-15</v>
       </c>
       <c r="B5" s="1">
-        <v>7.7578549999999995E-16</v>
+        <v>8.6226349999999999E-16</v>
       </c>
       <c r="C5" s="1">
         <v>5.2083330000000005E-7</v>
@@ -544,7 +546,7 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>6.2792719999999989E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -552,7 +554,7 @@
         <v>9.1462053205964198E-12</v>
       </c>
       <c r="B6" s="1">
-        <v>-7.2419480000000002E-8</v>
+        <v>-1.3521219999999999E-7</v>
       </c>
       <c r="C6" s="1">
         <v>1.219494E-3</v>
@@ -568,7 +570,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>2.4533659999999997E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -576,7 +578,7 @@
         <v>1.82885043912084E-11</v>
       </c>
       <c r="B7" s="1">
-        <v>3.457117E-8</v>
+        <v>5.9104829999999998E-8</v>
       </c>
       <c r="C7" s="1">
         <v>2.4384670000000002E-3</v>
@@ -592,7 +594,7 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>2.6197920000000003E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -600,7 +602,7 @@
         <v>2.7430803461820501E-11</v>
       </c>
       <c r="B8" s="1">
-        <v>3.209719E-7</v>
+        <v>5.8295110000000004E-7</v>
       </c>
       <c r="C8" s="1">
         <v>3.6574400000000001E-3</v>
@@ -616,7 +618,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>6.4954420000000002E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -624,7 +626,7 @@
         <v>3.6573102532432498E-11</v>
       </c>
       <c r="B9" s="1">
-        <v>7.867828E-7</v>
+        <v>1.436327E-6</v>
       </c>
       <c r="C9" s="1">
         <v>4.8764139999999999E-3</v>
@@ -640,7 +642,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.1872270000000002E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -648,7 +650,7 @@
         <v>4.5715401603044503E-11</v>
       </c>
       <c r="B10" s="1">
-        <v>1.4320039999999999E-6</v>
+        <v>2.6192310000000001E-6</v>
       </c>
       <c r="C10" s="1">
         <v>6.0953869999999999E-3</v>
@@ -664,7 +666,7 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>1.8750299999999998E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -672,7 +674,7 @@
         <v>5.4857700673656597E-11</v>
       </c>
       <c r="B11" s="1">
-        <v>2.256635E-6</v>
+        <v>4.1316649999999999E-6</v>
       </c>
       <c r="C11" s="1">
         <v>7.3143599999999998E-3</v>
@@ -688,7 +690,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>2.7129529999999999E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -696,7 +698,7 @@
         <v>6.3999999744268595E-11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.2606760000000002E-6</v>
+        <v>5.973629E-6</v>
       </c>
       <c r="C12" s="1">
         <v>8.5333330000000006E-3</v>
@@ -712,7 +714,7 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.7515749999999999E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -720,7 +722,7 @@
         <v>1.2799999948853701E-10</v>
       </c>
       <c r="B13" s="1">
-        <v>2.520486E-5</v>
+        <v>4.272061E-5</v>
       </c>
       <c r="C13" s="1">
         <v>1.7066669999999999E-2</v>
@@ -736,15 +738,15 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>5.1578300000000007E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2.4048288510462802E-10</v>
+        <v>2.40482885104629E-10</v>
       </c>
       <c r="B14" s="1">
-        <v>1.603737E-4</v>
+        <v>2.1195200000000001E-4</v>
       </c>
       <c r="C14" s="1">
         <v>3.2064389999999998E-2</v>
@@ -760,15 +762,15 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>8.2965099999999983E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>3.6195009195435199E-10</v>
+        <v>3.6195009195435302E-10</v>
       </c>
       <c r="B15" s="1">
-        <v>5.2089140000000003E-4</v>
+        <v>6.0385650000000001E-4</v>
       </c>
       <c r="C15" s="1">
         <v>4.8260009999999999E-2</v>
@@ -784,15 +786,15 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.0902600000000013E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>4.88948785760033E-10</v>
+        <v>4.8894878576003404E-10</v>
       </c>
       <c r="B16" s="1">
-        <v>1.237244E-3</v>
+        <v>1.3462700000000001E-3</v>
       </c>
       <c r="C16" s="1">
         <v>6.5193169999999995E-2</v>
@@ -808,15 +810,15 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>1.7807799999999992E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>6.1401929298329901E-10</v>
+        <v>6.1401929298330097E-10</v>
       </c>
       <c r="B17" s="1">
-        <v>2.375514E-3</v>
+        <v>2.5535919999999999E-3</v>
       </c>
       <c r="C17" s="1">
         <v>8.1869239999999996E-2</v>
@@ -832,15 +834,15 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>3.2429999999999959E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>7.8328370244427802E-10</v>
+        <v>7.83283702444259E-10</v>
       </c>
       <c r="B18" s="1">
-        <v>4.7541570000000002E-3</v>
+        <v>5.0784569999999998E-3</v>
       </c>
       <c r="C18" s="1">
         <v>0.1044378</v>
@@ -856,15 +858,15 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>4.2345700000000035E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>9.7859620244427791E-10</v>
+        <v>9.7859620244425909E-10</v>
       </c>
       <c r="B19" s="1">
-        <v>8.8958630000000004E-3</v>
+        <v>9.3193200000000007E-3</v>
       </c>
       <c r="C19" s="1">
         <v>0.1304795</v>
@@ -880,15 +882,15 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>4.6299999999999987E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1.17390870244427E-9</v>
+        <v>1.1739087024442599E-9</v>
       </c>
       <c r="B20" s="1">
-        <v>1.47314E-2</v>
+        <v>1.51944E-2</v>
       </c>
       <c r="C20" s="1">
         <v>0.1565212</v>
@@ -904,15 +906,15 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>4.893400000000013E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>1.36922120244427E-9</v>
+        <v>1.3692212024442599E-9</v>
       </c>
       <c r="B21" s="1">
-        <v>2.2418939999999998E-2</v>
+        <v>2.290828E-2</v>
       </c>
       <c r="C21" s="1">
         <v>0.1825628</v>
@@ -928,15 +930,15 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>5.0360999999999462E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>1.56453370244427E-9</v>
+        <v>1.5645337024442601E-9</v>
       </c>
       <c r="B22" s="1">
-        <v>3.2063840000000003E-2</v>
+        <v>3.2567449999999998E-2</v>
       </c>
       <c r="C22" s="1">
         <v>0.2086045</v>
@@ -952,15 +954,15 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>5.0701999999999692E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1.75984620244427E-9</v>
+        <v>1.7598462024442601E-9</v>
       </c>
       <c r="B23" s="1">
-        <v>4.3723150000000002E-2</v>
+        <v>4.4230169999999999E-2</v>
       </c>
       <c r="C23" s="1">
         <v>0.2346462</v>
@@ -976,15 +978,15 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>5.0083999999999546E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>1.95515870244427E-9</v>
+        <v>1.9551587024442502E-9</v>
       </c>
       <c r="B24" s="1">
-        <v>5.7410540000000003E-2</v>
+        <v>5.7911379999999998E-2</v>
       </c>
       <c r="C24" s="1">
         <v>0.26068780000000003</v>
@@ -1000,15 +1002,15 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>4.8636999999999986E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>2.1504712024442702E-9</v>
+        <v>2.1504712024442499E-9</v>
       </c>
       <c r="B25" s="1">
-        <v>7.3101299999999994E-2</v>
+        <v>7.3587669999999994E-2</v>
       </c>
       <c r="C25" s="1">
         <v>0.28672950000000003</v>
@@ -1024,15 +1026,15 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>4.6485000000000276E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>2.34578370244427E-9</v>
+        <v>2.3457837024442501E-9</v>
       </c>
       <c r="B26" s="1">
-        <v>9.0737529999999997E-2</v>
+        <v>9.120238E-2</v>
       </c>
       <c r="C26" s="1">
         <v>0.31277120000000003</v>
@@ -1048,15 +1050,15 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>4.3749999999999345E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>2.5410962024442702E-9</v>
+        <v>2.5410962024442499E-9</v>
       </c>
       <c r="B27" s="1">
-        <v>0.1102332</v>
+        <v>0.1106707</v>
       </c>
       <c r="C27" s="1">
         <v>0.33881280000000003</v>
@@ -1072,15 +1074,15 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>4.0570000000000883E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>2.73640870244427E-9</v>
+        <v>2.7364087024442501E-9</v>
       </c>
       <c r="B28" s="1">
-        <v>0.13147909999999999</v>
+        <v>0.1318848</v>
       </c>
       <c r="C28" s="1">
         <v>0.36485450000000003</v>
@@ -1096,15 +1098,15 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>3.7039999999999296E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>2.9317212024442702E-9</v>
+        <v>2.9317212024442499E-9</v>
       </c>
       <c r="B29" s="1">
-        <v>0.1543477</v>
+        <v>0.1547181</v>
       </c>
       <c r="C29" s="1">
         <v>0.39089620000000003</v>
@@ -1120,15 +1122,15 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>3.3269999999999134E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>3.12703370244427E-9</v>
+        <v>3.1270337024442501E-9</v>
       </c>
       <c r="B30" s="1">
-        <v>0.178698</v>
+        <v>0.17903069999999999</v>
       </c>
       <c r="C30" s="1">
         <v>0.41693780000000003</v>
@@ -1144,15 +1146,15 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>2.9360000000000497E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>3.3223462024442702E-9</v>
+        <v>3.3223462024442499E-9</v>
       </c>
       <c r="B31" s="1">
-        <v>0.2043789</v>
+        <v>0.20467250000000001</v>
       </c>
       <c r="C31" s="1">
         <v>0.44297950000000003</v>
@@ -1168,15 +1170,15 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>2.5400000000000422E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>3.5176587024442699E-9</v>
+        <v>3.5176587024442501E-9</v>
       </c>
       <c r="B32" s="1">
-        <v>0.2312341</v>
+        <v>0.2314881</v>
       </c>
       <c r="C32" s="1">
         <v>0.46902120000000003</v>
@@ -1192,15 +1194,15 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>2.1450000000000635E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>3.7129712024442701E-9</v>
+        <v>3.7129712024442499E-9</v>
       </c>
       <c r="B33" s="1">
-        <v>0.25910509999999998</v>
+        <v>0.25931959999999998</v>
       </c>
       <c r="C33" s="1">
         <v>0.49506280000000003</v>
@@ -1216,15 +1218,15 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>1.7610000000001236E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>3.9082837024442703E-9</v>
+        <v>3.9082837024442497E-9</v>
       </c>
       <c r="B34" s="1">
-        <v>0.28783419999999998</v>
+        <v>0.2880103</v>
       </c>
       <c r="C34" s="1">
         <v>0.52110449999999997</v>
@@ -1240,15 +1242,15 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>1.0409999999999586E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>4.2989087024442699E-9</v>
+        <v>4.29890870244425E-9</v>
       </c>
       <c r="B35" s="1">
-        <v>0.3472576</v>
+        <v>0.3473617</v>
       </c>
       <c r="C35" s="1">
         <v>0.57318780000000003</v>
@@ -1264,15 +1266,15 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>4.1700000000033377E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>4.6895337024442703E-9</v>
+        <v>4.6895337024442496E-9</v>
       </c>
       <c r="B36" s="1">
-        <v>0.40835749999999998</v>
+        <v>0.40839920000000002</v>
       </c>
       <c r="C36" s="1">
         <v>0.62527109999999997</v>
@@ -1288,15 +1290,15 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>9.2000000000425075E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>5.0801587024442699E-9</v>
+        <v>5.08015870244425E-9</v>
       </c>
       <c r="B37" s="1">
-        <v>0.47013690000000002</v>
+        <v>0.47012769999999998</v>
       </c>
       <c r="C37" s="1">
         <v>0.67735449999999997</v>
@@ -1312,15 +1314,15 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>6.2600000000023748E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>5.66609620244427E-9</v>
+        <v>5.6660962024442502E-9</v>
       </c>
       <c r="B38" s="1">
-        <v>0.56235270000000004</v>
+        <v>0.56229010000000001</v>
       </c>
       <c r="C38" s="1">
         <v>0.75547949999999997</v>
@@ -1336,15 +1338,15 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>8.4899999999943354E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>5.9280824592379399E-9</v>
+        <v>5.9280824592379299E-9</v>
       </c>
       <c r="B39" s="1">
-        <v>0.60303099999999998</v>
+        <v>0.60294610000000004</v>
       </c>
       <c r="C39" s="1">
         <v>0.79041099999999997</v>
@@ -1360,15 +1362,15 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>9.6899999999955355E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>6.1900687160316196E-9</v>
+        <v>6.1900687160316097E-9</v>
       </c>
       <c r="B40" s="1">
-        <v>0.64305279999999998</v>
+        <v>0.64295590000000002</v>
       </c>
       <c r="C40" s="1">
         <v>0.82534249999999998</v>
@@ -1384,15 +1386,15 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>9.8399999999942978E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>6.4520549728252903E-9</v>
+        <v>6.4520549728252803E-9</v>
       </c>
       <c r="B41" s="1">
-        <v>0.68241799999999997</v>
+        <v>0.68231960000000003</v>
       </c>
       <c r="C41" s="1">
         <v>0.86027399999999998</v>
@@ -1408,15 +1410,15 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>8.9399999999906221E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>6.71404122961897E-9</v>
+        <v>6.7140412296189601E-9</v>
       </c>
       <c r="B42" s="1">
-        <v>0.72112659999999995</v>
+        <v>0.72103720000000004</v>
       </c>
       <c r="C42" s="1">
         <v>0.89520549999999999</v>
@@ -1432,15 +1434,15 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>7.0099999999961859E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>6.9760274864126498E-9</v>
+        <v>6.9760274864126398E-9</v>
       </c>
       <c r="B43" s="1">
-        <v>0.75917869999999998</v>
+        <v>0.75910860000000002</v>
       </c>
       <c r="C43" s="1">
         <v>0.93013699999999999</v>
@@ -1456,7 +1458,7 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>4.0299999999993119E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1464,7 +1466,7 @@
         <v>7.2380137432063204E-9</v>
       </c>
       <c r="B44" s="1">
-        <v>0.79657420000000001</v>
+        <v>0.79653390000000002</v>
       </c>
       <c r="C44" s="1">
         <v>0.9650685</v>
@@ -1504,7 +1506,7 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>2.0000000000575113E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1512,7 +1514,7 @@
         <v>7.5086259809776992E-9</v>
       </c>
       <c r="B46" s="1">
-        <v>0.83451129999999996</v>
+        <v>0.83451109999999995</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1528,15 +1530,15 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" si="0"/>
-        <v>1.7000000001043958E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>7.5258779429331204E-9</v>
+        <v>7.5258779429331006E-9</v>
       </c>
       <c r="B47" s="1">
-        <v>0.83690640000000005</v>
+        <v>0.83690469999999995</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1552,15 +1554,15 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="0"/>
-        <v>4.4500000000002871E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>7.6293897146656295E-9</v>
+        <v>7.6293897146655203E-9</v>
       </c>
       <c r="B48" s="1">
-        <v>0.85119800000000001</v>
+        <v>0.85115350000000001</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1576,15 +1578,15 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" si="0"/>
-        <v>1.7219999999995572E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>7.7674054103089794E-9</v>
+        <v>7.7674054103087396E-9</v>
       </c>
       <c r="B49" s="1">
-        <v>0.86995400000000001</v>
+        <v>0.86978180000000005</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1600,15 +1602,15 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" si="0"/>
-        <v>3.1709999999995908E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>7.9627179103089792E-9</v>
+        <v>7.9627179103087394E-9</v>
       </c>
       <c r="B50" s="1">
-        <v>0.89566449999999997</v>
+        <v>0.89534740000000002</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1624,15 +1626,15 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="0"/>
-        <v>3.8879999999996695E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>8.1580304103089807E-9</v>
+        <v>8.1580304103087408E-9</v>
       </c>
       <c r="B51" s="1">
-        <v>0.9201066</v>
+        <v>0.91971780000000003</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1648,15 +1650,15 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" si="0"/>
-        <v>4.4480000000002295E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>8.3533429103089805E-9</v>
+        <v>8.3533429103087406E-9</v>
       </c>
       <c r="B52" s="1">
-        <v>0.94299330000000003</v>
+        <v>0.94254850000000001</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1672,15 +1674,15 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" si="0"/>
-        <v>4.8599999999998644E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>8.5486554103089802E-9</v>
+        <v>8.5486554103087404E-9</v>
       </c>
       <c r="B53" s="1">
-        <v>0.96410070000000003</v>
+        <v>0.96361470000000005</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1696,15 +1698,15 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="0"/>
-        <v>5.2799999999997294E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>8.9392804103089798E-9</v>
+        <v>8.9392804103087399E-9</v>
       </c>
       <c r="B54" s="1">
-        <v>1.000375</v>
+        <v>0.99984700000000004</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1720,15 +1722,15 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" si="0"/>
-        <v>5.2399999999996894E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>9.3299054103089794E-9</v>
+        <v>9.3299054103087395E-9</v>
       </c>
       <c r="B55" s="1">
-        <v>1.0282480000000001</v>
+        <v>1.0277240000000001</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1744,15 +1746,15 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="0"/>
-        <v>5.0899999999987067E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>9.5252179103089808E-9</v>
+        <v>9.5252179103087393E-9</v>
       </c>
       <c r="B56" s="1">
-        <v>1.0390239999999999</v>
+        <v>1.0385150000000001</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1768,15 +1770,15 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="0"/>
-        <v>4.8699999999990418E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>9.7205304103089806E-9</v>
+        <v>9.7205304103087407E-9</v>
       </c>
       <c r="B57" s="1">
-        <v>1.0477639999999999</v>
+        <v>1.047277</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1792,15 +1794,15 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" si="0"/>
-        <v>4.5800000000006946E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>9.9158429103089804E-9</v>
+        <v>9.9158429103087405E-9</v>
       </c>
       <c r="B58" s="1">
-        <v>1.054557</v>
+        <v>1.0540989999999999</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1816,15 +1818,15 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" si="0"/>
-        <v>4.2500000000011973E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1.0111155410308901E-8</v>
+        <v>1.0111155410308701E-8</v>
       </c>
       <c r="B59" s="1">
-        <v>1.05952</v>
+        <v>1.0590949999999999</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1840,15 +1842,15 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="0"/>
-        <v>3.8700000000013723E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1.0306467910308901E-8</v>
+        <v>1.03064679103087E-8</v>
       </c>
       <c r="B60" s="1">
-        <v>1.0627850000000001</v>
+        <v>1.062398</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1864,15 +1866,15 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" si="0"/>
-        <v>3.4800000000001496E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1.05017804103089E-8</v>
+        <v>1.05017804103087E-8</v>
       </c>
       <c r="B61" s="1">
-        <v>1.0645020000000001</v>
+        <v>1.064154</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1888,15 +1890,15 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="0"/>
-        <v>3.0700000000005723E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1.06970929103089E-8</v>
+        <v>1.06970929103087E-8</v>
       </c>
       <c r="B62" s="1">
-        <v>1.0648280000000001</v>
+        <v>1.0645210000000001</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1912,15 +1914,15 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" si="0"/>
-        <v>2.6499999999995971E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1.08924054103089E-8</v>
+        <v>1.08924054103087E-8</v>
       </c>
       <c r="B63" s="1">
-        <v>1.0639270000000001</v>
+        <v>1.0636620000000001</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1936,15 +1938,15 @@
       </c>
       <c r="J63" s="2">
         <f t="shared" si="0"/>
-        <v>2.2400000000000198E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1.10877179103089E-8</v>
+        <v>1.10877179103087E-8</v>
       </c>
       <c r="B64" s="1">
-        <v>1.061966</v>
+        <v>1.061742</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1960,15 +1962,15 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" si="0"/>
-        <v>1.8399999999996197E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1.1283030410308899E-8</v>
+        <v>1.1283030410308699E-8</v>
       </c>
       <c r="B65" s="1">
-        <v>1.05911</v>
+        <v>1.058926</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1984,15 +1986,15 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" si="0"/>
-        <v>1.4500000000006175E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1.1478342910308899E-8</v>
+        <v>1.1478342910308701E-8</v>
       </c>
       <c r="B66" s="1">
-        <v>1.0555190000000001</v>
+        <v>1.055374</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -2008,15 +2010,15 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" si="0"/>
-        <v>1.0799999999999699E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1.1673655410308901E-8</v>
+        <v>1.1673655410308701E-8</v>
       </c>
       <c r="B67" s="1">
-        <v>1.0513490000000001</v>
+        <v>1.0512410000000001</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -2032,15 +2034,15 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" ref="J67:J130" si="1" xml:space="preserve"> ABS(F68-B68)</f>
-        <v>7.5000000000047251E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1.18689679103089E-8</v>
+        <v>1.18689679103087E-8</v>
       </c>
       <c r="B68" s="1">
-        <v>1.046746</v>
+        <v>1.0466709999999999</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -2056,15 +2058,15 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" si="1"/>
-        <v>4.3000000000015248E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1.20642804103089E-8</v>
+        <v>1.20642804103087E-8</v>
       </c>
       <c r="B69" s="1">
-        <v>1.0418449999999999</v>
+        <v>1.0418019999999999</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -2080,15 +2082,15 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" si="1"/>
-        <v>1.5000000000098268E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>1.22595929103089E-8</v>
+        <v>1.22595929103087E-8</v>
       </c>
       <c r="B70" s="1">
-        <v>1.036772</v>
+        <v>1.0367569999999999</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -2104,15 +2106,15 @@
       </c>
       <c r="J70" s="2">
         <f t="shared" si="1"/>
-        <v>1.0000000000065512E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>1.24549054103089E-8</v>
+        <v>1.24549054103087E-8</v>
       </c>
       <c r="B71" s="1">
-        <v>1.0316399999999999</v>
+        <v>1.03165</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -2128,15 +2130,15 @@
       </c>
       <c r="J71" s="2">
         <f t="shared" si="1"/>
-        <v>3.1000000000114269E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>1.26502179103089E-8</v>
+        <v>1.2650217910308699E-8</v>
       </c>
       <c r="B72" s="1">
-        <v>1.0265489999999999</v>
+        <v>1.02658</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -2152,15 +2154,15 @@
       </c>
       <c r="J72" s="2">
         <f t="shared" si="1"/>
-        <v>5.0000000000105516E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>1.2845530410308899E-8</v>
+        <v>1.2845530410308699E-8</v>
       </c>
       <c r="B73" s="1">
-        <v>1.021585</v>
+        <v>1.0216350000000001</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -2176,15 +2178,15 @@
       </c>
       <c r="J73" s="2">
         <f t="shared" si="1"/>
-        <v>6.5999999999899472E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>1.3040842910308899E-8</v>
+        <v>1.3040842910308701E-8</v>
       </c>
       <c r="B74" s="1">
-        <v>1.016823</v>
+        <v>1.0168889999999999</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -2200,15 +2202,15 @@
       </c>
       <c r="J74" s="2">
         <f t="shared" si="1"/>
-        <v>7.8000000000022496E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>1.3236155410308901E-8</v>
+        <v>1.32361554103087E-8</v>
       </c>
       <c r="B75" s="1">
-        <v>1.0123249999999999</v>
+        <v>1.0124029999999999</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -2224,15 +2226,15 @@
       </c>
       <c r="J75" s="2">
         <f t="shared" si="1"/>
-        <v>8.699999999994823E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>1.34314679103089E-8</v>
+        <v>1.34314679103087E-8</v>
       </c>
       <c r="B76" s="1">
-        <v>1.00814</v>
+        <v>1.008227</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -2248,15 +2250,15 @@
       </c>
       <c r="J76" s="2">
         <f t="shared" si="1"/>
-        <v>9.3999999999816453E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>1.36267804103089E-8</v>
+        <v>1.36267804103087E-8</v>
       </c>
       <c r="B77" s="1">
-        <v>1.0043040000000001</v>
+        <v>1.0043979999999999</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -2272,15 +2274,15 @@
       </c>
       <c r="J77" s="2">
         <f t="shared" si="1"/>
-        <v>1.0020000000010576E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>1.40174054103089E-8</v>
+        <v>1.40174054103087E-8</v>
       </c>
       <c r="B78" s="1">
-        <v>0.99778009999999995</v>
+        <v>0.99788030000000005</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -2296,15 +2298,15 @@
       </c>
       <c r="J78" s="2">
         <f t="shared" si="1"/>
-        <v>9.7999999999931475E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>1.4408030410308899E-8</v>
+        <v>1.4408030410308701E-8</v>
       </c>
       <c r="B79" s="1">
-        <v>0.99285060000000003</v>
+        <v>0.99294859999999996</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -2320,15 +2322,15 @@
       </c>
       <c r="J79" s="2">
         <f t="shared" si="1"/>
-        <v>9.4499999999997364E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>1.4603342910308901E-8</v>
+        <v>1.4603342910308701E-8</v>
       </c>
       <c r="B80" s="1">
-        <v>0.99097780000000002</v>
+        <v>0.99107230000000002</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -2344,15 +2346,15 @@
       </c>
       <c r="J80" s="2">
         <f t="shared" si="1"/>
-        <v>8.9699999999970359E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>1.4798655410308901E-8</v>
+        <v>1.47986554103087E-8</v>
       </c>
       <c r="B81" s="1">
-        <v>0.989483</v>
+        <v>0.98957269999999997</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -2368,15 +2370,15 @@
       </c>
       <c r="J81" s="2">
         <f t="shared" si="1"/>
-        <v>8.3799999999967234E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>1.49939679103089E-8</v>
+        <v>1.4993967910308699E-8</v>
       </c>
       <c r="B82" s="1">
-        <v>0.98834710000000003</v>
+        <v>0.9884309</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -2392,15 +2394,15 @@
       </c>
       <c r="J82" s="2">
         <f t="shared" si="1"/>
-        <v>7.7299999999946856E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>1.5189280410308898E-8</v>
+        <v>1.51892804103087E-8</v>
       </c>
       <c r="B83" s="1">
-        <v>0.98754660000000005</v>
+        <v>0.9876239</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -2416,15 +2418,15 @@
       </c>
       <c r="J83" s="2">
         <f t="shared" si="1"/>
-        <v>7.0099999999961859E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>1.53845929103089E-8</v>
+        <v>1.5384592910308701E-8</v>
       </c>
       <c r="B84" s="1">
-        <v>0.98705520000000002</v>
+        <v>0.98712529999999998</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -2440,15 +2442,15 @@
       </c>
       <c r="J84" s="2">
         <f t="shared" si="1"/>
-        <v>6.2399999999906974E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>1.5579905410308901E-8</v>
+        <v>1.55799054103087E-8</v>
       </c>
       <c r="B85" s="1">
-        <v>0.98684400000000005</v>
+        <v>0.98690639999999996</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -2464,15 +2466,15 @@
       </c>
       <c r="J85" s="2">
         <f t="shared" si="1"/>
-        <v>5.4699999999963111E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>1.5775217910308899E-8</v>
+        <v>1.5775217910308701E-8</v>
       </c>
       <c r="B86" s="1">
-        <v>0.98688240000000005</v>
+        <v>0.98693710000000001</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -2488,15 +2490,15 @@
       </c>
       <c r="J86" s="2">
         <f t="shared" si="1"/>
-        <v>4.6800000000013497E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>1.5970530410308901E-8</v>
+        <v>1.5970530410308699E-8</v>
       </c>
       <c r="B87" s="1">
-        <v>0.98713949999999995</v>
+        <v>0.98718629999999996</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -2512,15 +2514,15 @@
       </c>
       <c r="J87" s="2">
         <f t="shared" si="1"/>
-        <v>3.9100000000069635E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>1.6165842910308899E-8</v>
+        <v>1.6165842910308701E-8</v>
       </c>
       <c r="B88" s="1">
-        <v>0.98758369999999995</v>
+        <v>0.98762280000000002</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -2536,15 +2538,15 @@
       </c>
       <c r="J88" s="2">
         <f t="shared" si="1"/>
-        <v>3.1600000000020501E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>1.63611554103089E-8</v>
+        <v>1.6361155410308699E-8</v>
       </c>
       <c r="B89" s="1">
-        <v>0.98818419999999996</v>
+        <v>0.98821579999999998</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -2560,15 +2562,15 @@
       </c>
       <c r="J89" s="2">
         <f t="shared" si="1"/>
-        <v>2.4400000000035504E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>1.6556467910308899E-8</v>
+        <v>1.65564679103087E-8</v>
       </c>
       <c r="B90" s="1">
-        <v>0.98891099999999998</v>
+        <v>0.98893540000000002</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -2584,15 +2586,15 @@
       </c>
       <c r="J90" s="2">
         <f t="shared" si="1"/>
-        <v>1.7700000000009375E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>1.67517804103089E-8</v>
+        <v>1.6751780410308702E-8</v>
       </c>
       <c r="B91" s="1">
-        <v>0.98973549999999999</v>
+        <v>0.9897532</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -2608,15 +2610,15 @@
       </c>
       <c r="J91" s="2">
         <f t="shared" si="1"/>
-        <v>1.1500000000053134E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>1.6947092910308901E-8</v>
+        <v>1.69470929103087E-8</v>
       </c>
       <c r="B92" s="1">
-        <v>0.99063089999999998</v>
+        <v>0.99064240000000003</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -2632,15 +2634,15 @@
       </c>
       <c r="J92" s="2">
         <f t="shared" si="1"/>
-        <v>5.900000000003125E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>1.71424054103089E-8</v>
+        <v>1.7142405410308701E-8</v>
       </c>
       <c r="B93" s="1">
-        <v>0.99157229999999996</v>
+        <v>0.99157819999999997</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -2656,15 +2658,15 @@
       </c>
       <c r="J93" s="2">
         <f t="shared" si="1"/>
-        <v>8.0000000002300453E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>1.7337717910308901E-8</v>
+        <v>1.7337717910308699E-8</v>
       </c>
       <c r="B94" s="1">
-        <v>0.99253709999999995</v>
+        <v>0.99253789999999997</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -2680,15 +2682,15 @@
       </c>
       <c r="J94" s="2">
         <f t="shared" si="1"/>
-        <v>3.6999999999398625E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>1.7533030410308998E-8</v>
+        <v>1.7533030410308701E-8</v>
       </c>
       <c r="B95" s="1">
-        <v>0.99350499999999997</v>
+        <v>0.99350130000000003</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -2704,15 +2706,15 @@
       </c>
       <c r="J95" s="2">
         <f t="shared" si="1"/>
-        <v>7.5999999999964984E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>1.7728342910309E-8</v>
+        <v>1.7728342910308699E-8</v>
       </c>
       <c r="B96" s="1">
-        <v>0.99445799999999995</v>
+        <v>0.99445039999999996</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -2728,15 +2730,15 @@
       </c>
       <c r="J96" s="2">
         <f t="shared" si="1"/>
-        <v>1.0799999999977494E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>1.7923655410309001E-8</v>
+        <v>1.79236554103087E-8</v>
       </c>
       <c r="B97" s="1">
-        <v>0.99538079999999995</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -2752,15 +2754,15 @@
       </c>
       <c r="J97" s="2">
         <f t="shared" si="1"/>
-        <v>1.3499999999999623E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>1.8118967910308999E-8</v>
+        <v>1.8118967910308698E-8</v>
       </c>
       <c r="B98" s="1">
-        <v>0.99626029999999999</v>
+        <v>0.99624679999999999</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -2776,15 +2778,15 @@
       </c>
       <c r="J98" s="2">
         <f t="shared" si="1"/>
-        <v>1.5600000000004499E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>1.8314280410309001E-8</v>
+        <v>1.83142804103087E-8</v>
       </c>
       <c r="B99" s="1">
-        <v>0.99708600000000003</v>
+        <v>0.99707040000000002</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -2800,15 +2802,15 @@
       </c>
       <c r="J99" s="2">
         <f t="shared" si="1"/>
-        <v>1.7099999999992122E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>1.8509592910308999E-8</v>
+        <v>1.8509592910308701E-8</v>
       </c>
       <c r="B100" s="1">
-        <v>0.9978494</v>
+        <v>0.99783230000000001</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -2824,15 +2826,15 @@
       </c>
       <c r="J100" s="2">
         <f t="shared" si="1"/>
-        <v>1.8799999999985495E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>1.8900217910308999E-8</v>
+        <v>1.8900217910308701E-8</v>
       </c>
       <c r="B101" s="1">
-        <v>0.99916680000000002</v>
+        <v>0.99914800000000004</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -2848,15 +2850,15 @@
       </c>
       <c r="J101" s="2">
         <f t="shared" si="1"/>
-        <v>1.8000000000073513E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>1.9486155410309E-8</v>
+        <v>1.9486155410308699E-8</v>
       </c>
       <c r="B102" s="1">
-        <v>1.0005820000000001</v>
+        <v>1.000564</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -2872,15 +2874,15 @@
       </c>
       <c r="J102" s="2">
         <f t="shared" si="1"/>
-        <v>1.8000000000073513E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>1.9681467910309001E-8</v>
+        <v>1.96814679103087E-8</v>
       </c>
       <c r="B103" s="1">
-        <v>1.0009060000000001</v>
+        <v>1.000888</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -2896,15 +2898,15 @@
       </c>
       <c r="J103" s="2">
         <f t="shared" si="1"/>
-        <v>1.6000000000016001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>1.9876780410308999E-8</v>
+        <v>1.9876780410308701E-8</v>
       </c>
       <c r="B104" s="1">
-        <v>1.0011589999999999</v>
+        <v>1.0011429999999999</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -2920,15 +2922,15 @@
       </c>
       <c r="J104" s="2">
         <f t="shared" si="1"/>
-        <v>1.4999999999876223E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>2.0072092910309001E-8</v>
+        <v>2.00720929103087E-8</v>
       </c>
       <c r="B105" s="1">
-        <v>1.001347</v>
+        <v>1.0013320000000001</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -2944,15 +2946,15 @@
       </c>
       <c r="J105" s="2">
         <f t="shared" si="1"/>
-        <v>1.399999999995849E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>2.0267405410308999E-8</v>
+        <v>2.0267405410308701E-8</v>
       </c>
       <c r="B106" s="1">
-        <v>1.0014730000000001</v>
+        <v>1.0014590000000001</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -2968,15 +2970,15 @@
       </c>
       <c r="J106" s="2">
         <f t="shared" si="1"/>
-        <v>1.2000000000123023E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>2.0462717910309E-8</v>
+        <v>2.0462717910308699E-8</v>
       </c>
       <c r="B107" s="1">
-        <v>1.0015430000000001</v>
+        <v>1.0015309999999999</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -2992,15 +2994,15 @@
       </c>
       <c r="J107" s="2">
         <f t="shared" si="1"/>
-        <v>1.0999999999983245E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>2.0658030410309002E-8</v>
+        <v>2.0658030410308701E-8</v>
       </c>
       <c r="B108" s="1">
-        <v>1.001563</v>
+        <v>1.001552</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -3016,15 +3018,15 @@
       </c>
       <c r="J108" s="2">
         <f t="shared" si="1"/>
-        <v>1.0000000000065512E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>2.0853342910309E-8</v>
+        <v>2.0853342910308699E-8</v>
       </c>
       <c r="B109" s="1">
-        <v>1.001538</v>
+        <v>1.001528</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -3040,15 +3042,15 @@
       </c>
       <c r="J109" s="2">
         <f t="shared" si="1"/>
-        <v>8.9999999999257341E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>2.1048655410309001E-8</v>
+        <v>2.10486554103087E-8</v>
       </c>
       <c r="B110" s="1">
-        <v>1.001474</v>
+        <v>1.001465</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -3064,15 +3066,15 @@
       </c>
       <c r="J110" s="2">
         <f t="shared" si="1"/>
-        <v>6.9999999998682227E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>2.1243967910308999E-8</v>
+        <v>2.1243967910308702E-8</v>
       </c>
       <c r="B111" s="1">
-        <v>1.001377</v>
+        <v>1.0013700000000001</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -3088,15 +3090,15 @@
       </c>
       <c r="J111" s="2">
         <f t="shared" si="1"/>
-        <v>5.000000000032756E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>2.1439280410309001E-8</v>
+        <v>2.14392804103087E-8</v>
       </c>
       <c r="B112" s="1">
-        <v>1.0012529999999999</v>
+        <v>1.0012479999999999</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -3112,15 +3114,15 @@
       </c>
       <c r="J112" s="2">
         <f t="shared" si="1"/>
-        <v>3.9999999998929781E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>2.1634592910308999E-8</v>
+        <v>2.1634592910308701E-8</v>
       </c>
       <c r="B113" s="1">
-        <v>1.001107</v>
+        <v>1.0011030000000001</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -3136,15 +3138,15 @@
       </c>
       <c r="J113" s="2">
         <f t="shared" si="1"/>
-        <v>2.9999999999752447E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>2.1829905410309E-8</v>
+        <v>2.1829905410308699E-8</v>
       </c>
       <c r="B114" s="1">
-        <v>1.0009459999999999</v>
+        <v>1.0009429999999999</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -3160,15 +3162,15 @@
       </c>
       <c r="J114" s="2">
         <f t="shared" si="1"/>
-        <v>9.9999999991773336E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>2.2025217910308998E-8</v>
+        <v>2.2025217910308701E-8</v>
       </c>
       <c r="B115" s="1">
-        <v>1.000772</v>
+        <v>1.0007710000000001</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -3189,7 +3191,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>2.2220530410309E-8</v>
+        <v>2.2220530410308699E-8</v>
       </c>
       <c r="B116" s="1">
         <v>1.0005919999999999</v>
@@ -3208,15 +3210,15 @@
       </c>
       <c r="J116" s="2">
         <f t="shared" si="1"/>
-        <v>9.9999999991773336E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>2.2415842910309001E-8</v>
+        <v>2.24158429103087E-8</v>
       </c>
       <c r="B117" s="1">
-        <v>1.0004090000000001</v>
+        <v>1.00041</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -3232,15 +3234,15 @@
       </c>
       <c r="J117" s="2">
         <f t="shared" si="1"/>
-        <v>1.000000000139778E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>2.2611155410308999E-8</v>
+        <v>2.2611155410308698E-8</v>
       </c>
       <c r="B118" s="1">
-        <v>1.0002279999999999</v>
+        <v>1.000229</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -3256,15 +3258,15 @@
       </c>
       <c r="J118" s="2">
         <f t="shared" si="1"/>
-        <v>9.9999999991773336E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>2.2806467910309001E-8</v>
+        <v>2.2806467910308799E-8</v>
       </c>
       <c r="B119" s="1">
-        <v>1.0000500000000001</v>
+        <v>1.000051</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -3280,15 +3282,15 @@
       </c>
       <c r="J119" s="2">
         <f t="shared" si="1"/>
-        <v>2.3000000000106269E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>2.3001780410308999E-8</v>
+        <v>2.3001780410308801E-8</v>
       </c>
       <c r="B120" s="1">
-        <v>0.99987859999999995</v>
+        <v>0.99988089999999996</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -3304,15 +3306,15 @@
       </c>
       <c r="J120" s="2">
         <f t="shared" si="1"/>
-        <v>2.7000000000221291E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>2.3197092910309E-8</v>
+        <v>2.3197092910308799E-8</v>
       </c>
       <c r="B121" s="1">
-        <v>0.99971659999999996</v>
+        <v>0.99971929999999998</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -3328,15 +3330,15 @@
       </c>
       <c r="J121" s="2">
         <f t="shared" si="1"/>
-        <v>3.0999999999226091E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>2.3392405410308999E-8</v>
+        <v>2.33924054103088E-8</v>
       </c>
       <c r="B122" s="1">
-        <v>0.99956540000000005</v>
+        <v>0.99956849999999997</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -3352,15 +3354,15 @@
       </c>
       <c r="J122" s="2">
         <f t="shared" si="1"/>
-        <v>3.399999999986747E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>2.3587717910309E-8</v>
+        <v>2.3587717910308802E-8</v>
       </c>
       <c r="B123" s="1">
-        <v>0.9994265</v>
+        <v>0.99942989999999998</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -3376,15 +3378,15 @@
       </c>
       <c r="J123" s="2">
         <f t="shared" si="1"/>
-        <v>3.6000000001035204E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>2.3978342910309E-8</v>
+        <v>2.3978342910308801E-8</v>
       </c>
       <c r="B124" s="1">
-        <v>0.99918929999999995</v>
+        <v>0.99919290000000005</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -3400,15 +3402,15 @@
       </c>
       <c r="J124" s="2">
         <f t="shared" si="1"/>
-        <v>3.5999999999924981E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>2.4368967910308999E-8</v>
+        <v>2.4368967910308801E-8</v>
       </c>
       <c r="B125" s="1">
-        <v>0.99900880000000003</v>
+        <v>0.99901240000000002</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -3424,15 +3426,15 @@
       </c>
       <c r="J125" s="2">
         <f t="shared" si="1"/>
-        <v>3.399999999986747E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>2.4564280410309001E-8</v>
+        <v>2.4564280410308799E-8</v>
       </c>
       <c r="B126" s="1">
-        <v>0.99893980000000004</v>
+        <v>0.99894320000000003</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -3448,15 +3450,15 @@
       </c>
       <c r="J126" s="2">
         <f t="shared" si="1"/>
-        <v>3.2000000000920181E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>2.4759592910308999E-8</v>
+        <v>2.47595929103088E-8</v>
       </c>
       <c r="B127" s="1">
-        <v>0.99888429999999995</v>
+        <v>0.99888750000000004</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -3472,15 +3474,15 @@
       </c>
       <c r="J127" s="2">
         <f t="shared" si="1"/>
-        <v>3.1000000000336314E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>2.4954905410309E-8</v>
+        <v>2.4954905410308802E-8</v>
       </c>
       <c r="B128" s="1">
-        <v>0.9988416</v>
+        <v>0.99884470000000003</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -3496,15 +3498,15 @@
       </c>
       <c r="J128" s="2">
         <f t="shared" si="1"/>
-        <v>2.7999999999694936E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>2.5150217910309002E-8</v>
+        <v>2.51502179103088E-8</v>
       </c>
       <c r="B129" s="1">
-        <v>0.99881120000000001</v>
+        <v>0.99881399999999998</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -3520,15 +3522,15 @@
       </c>
       <c r="J129" s="2">
         <f t="shared" si="1"/>
-        <v>2.500000000016378E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>2.5345530410309E-8</v>
+        <v>2.5345530410308801E-8</v>
       </c>
       <c r="B130" s="1">
-        <v>0.99879189999999995</v>
+        <v>0.99879439999999997</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -3544,15 +3546,15 @@
       </c>
       <c r="J130" s="2">
         <f t="shared" si="1"/>
-        <v>2.2000000000632625E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>2.5540842910309001E-8</v>
+        <v>2.5540842910308799E-8</v>
       </c>
       <c r="B131" s="1">
-        <v>0.99878279999999997</v>
+        <v>0.99878500000000003</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -3568,15 +3570,15 @@
       </c>
       <c r="J131" s="2">
         <f t="shared" ref="J131:J194" si="2" xml:space="preserve"> ABS(F132-B132)</f>
-        <v>1.999999999946489E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>2.5736155410308999E-8</v>
+        <v>2.5736155410308801E-8</v>
       </c>
       <c r="B132" s="1">
-        <v>0.99878270000000002</v>
+        <v>0.99878469999999997</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -3592,15 +3594,15 @@
       </c>
       <c r="J132" s="2">
         <f t="shared" si="2"/>
-        <v>1.8000000000517602E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>2.5931467910309001E-8</v>
+        <v>2.5931467910308799E-8</v>
       </c>
       <c r="B133" s="1">
-        <v>0.99879059999999997</v>
+        <v>0.99879240000000002</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -3616,15 +3618,15 @@
       </c>
       <c r="J133" s="2">
         <f t="shared" si="2"/>
-        <v>1.4000000000402579E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>2.6126780410308999E-8</v>
+        <v>2.61267804103088E-8</v>
       </c>
       <c r="B134" s="1">
-        <v>0.99880539999999995</v>
+        <v>0.99880679999999999</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -3640,15 +3642,15 @@
       </c>
       <c r="J134" s="2">
         <f t="shared" si="2"/>
-        <v>1.0999999999761201E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>2.6322092910309E-8</v>
+        <v>2.6322092910308798E-8</v>
       </c>
       <c r="B135" s="1">
-        <v>0.99882599999999999</v>
+        <v>0.99882709999999997</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -3664,15 +3666,15 @@
       </c>
       <c r="J135" s="2">
         <f t="shared" si="2"/>
-        <v>8.9999999997036895E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>2.6517405410308998E-8</v>
+        <v>2.65174054103088E-8</v>
       </c>
       <c r="B136" s="1">
-        <v>0.99885120000000005</v>
+        <v>0.99885210000000002</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -3688,15 +3690,15 @@
       </c>
       <c r="J136" s="2">
         <f t="shared" si="2"/>
-        <v>6.9999999996461781E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>2.6712717910309E-8</v>
+        <v>2.6712717910308801E-8</v>
       </c>
       <c r="B137" s="1">
-        <v>0.99887999999999999</v>
+        <v>0.99888069999999995</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -3712,15 +3714,15 @@
       </c>
       <c r="J137" s="2">
         <f t="shared" si="2"/>
-        <v>4.0000000001150227E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>2.6908030410309001E-8</v>
+        <v>2.6908030410308799E-8</v>
       </c>
       <c r="B138" s="1">
-        <v>0.99891160000000001</v>
+        <v>0.99891200000000002</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -3736,15 +3738,15 @@
       </c>
       <c r="J138" s="2">
         <f t="shared" si="2"/>
-        <v>2.9999999995311555E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>2.7103342910308999E-8</v>
+        <v>2.7103342910308801E-8</v>
       </c>
       <c r="B139" s="1">
-        <v>0.99894490000000002</v>
+        <v>0.99894519999999998</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -3760,15 +3762,15 @@
       </c>
       <c r="J139" s="2">
         <f t="shared" si="2"/>
-        <v>1.0000000005838672E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>2.7298655410309001E-8</v>
+        <v>2.7298655410308799E-8</v>
       </c>
       <c r="B140" s="1">
-        <v>0.99897919999999996</v>
+        <v>0.99897930000000001</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -3784,15 +3786,15 @@
       </c>
       <c r="J140" s="2">
         <f t="shared" si="2"/>
-        <v>1.0000000005838672E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>2.7493967910308999E-8</v>
+        <v>2.7493967910308801E-8</v>
       </c>
       <c r="B141" s="1">
-        <v>0.9990137</v>
+        <v>0.99901359999999995</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
@@ -3808,15 +3810,15 @@
       </c>
       <c r="J141" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000575113E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>2.7689280410309E-8</v>
+        <v>2.7689280410308799E-8</v>
       </c>
       <c r="B142" s="1">
-        <v>0.99904780000000004</v>
+        <v>0.99904760000000004</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -3832,15 +3834,15 @@
       </c>
       <c r="J142" s="2">
         <f t="shared" si="2"/>
-        <v>4.9999999995886668E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>2.7884592910308999E-8</v>
+        <v>2.78845929103088E-8</v>
       </c>
       <c r="B143" s="1">
-        <v>0.999081</v>
+        <v>0.99908050000000004</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -3856,15 +3858,15 @@
       </c>
       <c r="J143" s="2">
         <f t="shared" si="2"/>
-        <v>4.0000000001150227E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>2.8079905410309E-8</v>
+        <v>2.8079905410308802E-8</v>
       </c>
       <c r="B144" s="1">
-        <v>0.99911249999999996</v>
+        <v>0.99911209999999995</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -3880,15 +3882,15 @@
       </c>
       <c r="J144" s="2">
         <f t="shared" si="2"/>
-        <v>5.0000000006988898E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>2.8275217910309001E-8</v>
+        <v>2.82752179103088E-8</v>
       </c>
       <c r="B145" s="1">
-        <v>0.99914230000000004</v>
+        <v>0.99914179999999997</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -3904,15 +3906,15 @@
       </c>
       <c r="J145" s="2">
         <f t="shared" si="2"/>
-        <v>6.000000000172534E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>2.8470530410309E-8</v>
+        <v>2.8470530410308801E-8</v>
       </c>
       <c r="B146" s="1">
-        <v>0.99916990000000006</v>
+        <v>0.99916930000000004</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
@@ -3928,15 +3930,15 @@
       </c>
       <c r="J146" s="2">
         <f t="shared" si="2"/>
-        <v>6.000000000172534E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>2.8861155410308999E-8</v>
+        <v>2.8861155410308801E-8</v>
       </c>
       <c r="B147" s="1">
-        <v>0.99921769999999999</v>
+        <v>0.99921709999999997</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
@@ -3952,15 +3954,15 @@
       </c>
       <c r="J147" s="2">
         <f t="shared" si="2"/>
-        <v>6.000000000172534E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>2.9447092910309E-8</v>
+        <v>2.9447092910308798E-8</v>
       </c>
       <c r="B148" s="1">
-        <v>0.99926950000000003</v>
+        <v>0.99926890000000002</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -3976,15 +3978,15 @@
       </c>
       <c r="J148" s="2">
         <f t="shared" si="2"/>
-        <v>6.000000000172534E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>2.9642405410309002E-8</v>
+        <v>2.96424054103088E-8</v>
       </c>
       <c r="B149" s="1">
-        <v>0.99928150000000004</v>
+        <v>0.99928090000000003</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
@@ -4000,15 +4002,15 @@
       </c>
       <c r="J149" s="2">
         <f t="shared" si="2"/>
-        <v>6.000000000172534E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>2.9837717910309E-8</v>
+        <v>2.9837717910308801E-8</v>
       </c>
       <c r="B150" s="1">
-        <v>0.99929100000000004</v>
+        <v>0.99929040000000002</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -4024,15 +4026,15 @@
       </c>
       <c r="J150" s="2">
         <f t="shared" si="2"/>
-        <v>5.0000000006988898E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>3.0033030410308998E-8</v>
+        <v>3.0033030410308799E-8</v>
       </c>
       <c r="B151" s="1">
-        <v>0.99929800000000002</v>
+        <v>0.99929749999999995</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
@@ -4048,15 +4050,15 @@
       </c>
       <c r="J151" s="2">
         <f t="shared" si="2"/>
-        <v>4.9999999995886668E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>3.0228342910309003E-8</v>
+        <v>3.0228342910308797E-8</v>
       </c>
       <c r="B152" s="1">
-        <v>0.99930289999999999</v>
+        <v>0.99930240000000004</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -4072,15 +4074,15 @@
       </c>
       <c r="J152" s="2">
         <f t="shared" si="2"/>
-        <v>4.9999999995886668E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>3.0423655410309001E-8</v>
+        <v>3.0423655410308802E-8</v>
       </c>
       <c r="B153" s="1">
-        <v>0.99930569999999996</v>
+        <v>0.9993052</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -4096,15 +4098,15 @@
       </c>
       <c r="J153" s="2">
         <f t="shared" si="2"/>
-        <v>4.0000000001150227E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>3.0618967910308999E-8</v>
+        <v>3.06189679103088E-8</v>
       </c>
       <c r="B154" s="1">
-        <v>0.99930669999999999</v>
+        <v>0.99930629999999998</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -4120,15 +4122,15 @@
       </c>
       <c r="J154" s="2">
         <f t="shared" si="2"/>
-        <v>4.0000000001150227E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>3.0814280410308997E-8</v>
+        <v>3.0814280410308798E-8</v>
       </c>
       <c r="B155" s="1">
-        <v>0.99930609999999997</v>
+        <v>0.99930569999999996</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -4144,15 +4146,15 @@
       </c>
       <c r="J155" s="2">
         <f t="shared" si="2"/>
-        <v>2.9999999995311555E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>3.1009592910309002E-8</v>
+        <v>3.1009592910308803E-8</v>
       </c>
       <c r="B156" s="1">
-        <v>0.99930399999999997</v>
+        <v>0.99930370000000002</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
@@ -4168,15 +4170,15 @@
       </c>
       <c r="J156" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000575113E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>3.1204905410309E-8</v>
+        <v>3.1204905410308801E-8</v>
       </c>
       <c r="B157" s="1">
-        <v>0.99930070000000004</v>
+        <v>0.99930050000000004</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
@@ -4192,15 +4194,15 @@
       </c>
       <c r="J157" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000575113E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>3.1400217910308998E-8</v>
+        <v>3.14002179103088E-8</v>
       </c>
       <c r="B158" s="1">
-        <v>0.99929650000000003</v>
+        <v>0.99929630000000003</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
@@ -4216,15 +4218,15 @@
       </c>
       <c r="J158" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000575113E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>3.1595530410309003E-8</v>
+        <v>3.1595530410308798E-8</v>
       </c>
       <c r="B159" s="1">
-        <v>0.99929140000000005</v>
+        <v>0.99929120000000005</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
@@ -4240,15 +4242,15 @@
       </c>
       <c r="J159" s="2">
         <f t="shared" si="2"/>
-        <v>1.0000000005838672E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>3.1790842910309001E-8</v>
+        <v>3.1790842910308802E-8</v>
       </c>
       <c r="B160" s="1">
-        <v>0.99928570000000005</v>
+        <v>0.9992856</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
@@ -4269,7 +4271,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>3.1986155410308999E-8</v>
+        <v>3.1986155410308801E-8</v>
       </c>
       <c r="B161" s="1">
         <v>0.99927960000000005</v>
@@ -4293,7 +4295,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>3.2181467910308997E-8</v>
+        <v>3.2181467910308799E-8</v>
       </c>
       <c r="B162" s="1">
         <v>0.99927319999999997</v>
@@ -4317,7 +4319,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>3.2376780410309002E-8</v>
+        <v>3.2376780410308797E-8</v>
       </c>
       <c r="B163" s="1">
         <v>0.99926669999999995</v>
@@ -4341,7 +4343,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>3.2572092910309E-8</v>
+        <v>3.2572092910308802E-8</v>
       </c>
       <c r="B164" s="1">
         <v>0.99926020000000004</v>
@@ -4360,15 +4362,15 @@
       </c>
       <c r="J164" s="2">
         <f t="shared" si="2"/>
-        <v>1.0000000005838672E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>3.2767405410308998E-8</v>
+        <v>3.27674054103088E-8</v>
       </c>
       <c r="B165" s="1">
-        <v>0.99925379999999997</v>
+        <v>0.99925390000000003</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
@@ -4389,7 +4391,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>3.3158030410309001E-8</v>
+        <v>3.3158030410308803E-8</v>
       </c>
       <c r="B166" s="1">
         <v>0.99924190000000002</v>
@@ -4408,15 +4410,15 @@
       </c>
       <c r="J166" s="2">
         <f t="shared" si="2"/>
-        <v>1.0000000005838672E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>3.3743967910309002E-8</v>
+        <v>3.3743967910308797E-8</v>
       </c>
       <c r="B167" s="1">
-        <v>0.99922679999999997</v>
+        <v>0.99922690000000003</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
@@ -4432,15 +4434,15 @@
       </c>
       <c r="J167" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000575113E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>3.3967182196023297E-8</v>
+        <v>3.3967182196022999E-8</v>
       </c>
       <c r="B168" s="1">
-        <v>0.99922219999999995</v>
+        <v>0.99922239999999996</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
@@ -4456,15 +4458,15 @@
       </c>
       <c r="J168" s="2">
         <f t="shared" si="2"/>
-        <v>9.9999999947364415E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>3.4190396481737599E-8</v>
+        <v>3.4190396481737301E-8</v>
       </c>
       <c r="B169" s="1">
-        <v>0.9992183</v>
+        <v>0.99921839999999995</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
@@ -4480,15 +4482,15 @@
       </c>
       <c r="J169" s="2">
         <f t="shared" si="2"/>
-        <v>1.0000000005838672E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>3.44136107674519E-8</v>
+        <v>3.4413610767451602E-8</v>
       </c>
       <c r="B170" s="1">
-        <v>0.99921499999999996</v>
+        <v>0.99921510000000002</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
@@ -4504,15 +4506,15 @@
       </c>
       <c r="J170" s="2">
         <f t="shared" si="2"/>
-        <v>9.9999999947364415E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>3.4636825053166102E-8</v>
+        <v>3.4636825053165897E-8</v>
       </c>
       <c r="B171" s="1">
-        <v>0.99921230000000005</v>
+        <v>0.9992124</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
@@ -4528,15 +4530,15 @@
       </c>
       <c r="J171" s="2">
         <f t="shared" si="2"/>
-        <v>1.0000000005838672E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>3.4860039338880397E-8</v>
+        <v>3.4860039338880199E-8</v>
       </c>
       <c r="B172" s="1">
-        <v>0.9992103</v>
+        <v>0.99921040000000005</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -4552,15 +4554,15 @@
       </c>
       <c r="J172" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000575113E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>3.5083253624594699E-8</v>
+        <v>3.50832536245945E-8</v>
       </c>
       <c r="B173" s="1">
-        <v>0.99920880000000001</v>
+        <v>0.99920900000000001</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
@@ -4576,15 +4578,15 @@
       </c>
       <c r="J173" s="2">
         <f t="shared" si="2"/>
-        <v>2.0000000000575113E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>3.5306467910309E-8</v>
+        <v>3.5306467910308802E-8</v>
       </c>
       <c r="B174" s="1">
-        <v>0.99920799999999999</v>
+        <v>0.99920819999999999</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
@@ -4600,15 +4602,15 @@
       </c>
       <c r="J174" s="2">
         <f t="shared" si="2"/>
-        <v>1.0000000005838672E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>3.5697092910309003E-8</v>
+        <v>3.5697092910308699E-8</v>
       </c>
       <c r="B175" s="1">
-        <v>0.99920759999999997</v>
+        <v>0.99920770000000003</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
@@ -4624,15 +4626,15 @@
       </c>
       <c r="J175" s="2">
         <f t="shared" si="2"/>
-        <v>9.9999999947364415E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>3.6087717910308999E-8</v>
+        <v>3.6087717910308702E-8</v>
       </c>
       <c r="B176" s="1">
-        <v>0.99920830000000005</v>
+        <v>0.9992084</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
@@ -4653,7 +4655,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>3.6478342910309002E-8</v>
+        <v>3.6478342910308698E-8</v>
       </c>
       <c r="B177" s="1">
         <v>0.99920989999999998</v>
@@ -4677,7 +4679,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>3.6868967910308999E-8</v>
+        <v>3.6868967910308701E-8</v>
       </c>
       <c r="B178" s="1">
         <v>0.99921199999999999</v>
@@ -4701,7 +4703,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>3.7454905410309E-8</v>
+        <v>3.7454905410308702E-8</v>
       </c>
       <c r="B179" s="1">
         <v>0.99921570000000004</v>
@@ -4725,7 +4727,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>3.8040842910309001E-8</v>
+        <v>3.8040842910308703E-8</v>
       </c>
       <c r="B180" s="1">
         <v>0.99921919999999997</v>
@@ -4749,7 +4751,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>3.84035661245947E-8</v>
+        <v>3.8403566124594402E-8</v>
       </c>
       <c r="B181" s="1">
         <v>0.99922109999999997</v>
@@ -4773,7 +4775,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>3.87662893388804E-8</v>
+        <v>3.8766289338880102E-8</v>
       </c>
       <c r="B182" s="1">
         <v>0.99922270000000002</v>
@@ -4797,7 +4799,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>3.9129012553166099E-8</v>
+        <v>3.9129012553165901E-8</v>
       </c>
       <c r="B183" s="1">
         <v>0.99922409999999995</v>
@@ -4821,7 +4823,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>3.9491735767451798E-8</v>
+        <v>3.94917357674516E-8</v>
       </c>
       <c r="B184" s="1">
         <v>0.99922509999999998</v>
@@ -4845,7 +4847,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>3.9854458981737498E-8</v>
+        <v>3.9854458981737299E-8</v>
       </c>
       <c r="B185" s="1">
         <v>0.99922580000000005</v>
@@ -4869,7 +4871,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>4.0217182196023197E-8</v>
+        <v>4.0217182196022999E-8</v>
       </c>
       <c r="B186" s="1">
         <v>0.99922619999999995</v>
@@ -4893,7 +4895,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>4.0579905410308897E-8</v>
+        <v>4.0579905410308698E-8</v>
       </c>
       <c r="B187" s="1">
         <v>0.99922630000000001</v>
@@ -4917,7 +4919,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>4.1110039338880397E-8</v>
+        <v>4.1110039338880099E-8</v>
       </c>
       <c r="B188" s="1">
         <v>0.9992259</v>
@@ -4941,7 +4943,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>4.1640173267451798E-8</v>
+        <v>4.16401732674515E-8</v>
       </c>
       <c r="B189" s="1">
         <v>0.99922549999999999</v>
@@ -4965,7 +4967,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>4.2170307196023199E-8</v>
+        <v>4.2170307196023E-8</v>
       </c>
       <c r="B190" s="1">
         <v>0.99922509999999998</v>
@@ -4989,7 +4991,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>4.2700441124594599E-8</v>
+        <v>4.2700441124594401E-8</v>
       </c>
       <c r="B191" s="1">
         <v>0.99922460000000002</v>
@@ -5013,7 +5015,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>4.3230575053166099E-8</v>
+        <v>4.3230575053165802E-8</v>
       </c>
       <c r="B192" s="1">
         <v>0.99922409999999995</v>
@@ -5037,7 +5039,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>4.37607089817375E-8</v>
+        <v>4.3760708981737202E-8</v>
       </c>
       <c r="B193" s="1">
         <v>0.99922359999999999</v>
@@ -5061,7 +5063,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>4.4290842910308901E-8</v>
+        <v>4.4290842910308703E-8</v>
       </c>
       <c r="B194" s="1">
         <v>0.99922310000000003</v>
@@ -5085,7 +5087,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>4.5295307196023202E-8</v>
+        <v>4.5295307196022897E-8</v>
       </c>
       <c r="B195" s="1">
         <v>0.99922310000000003</v>
@@ -5109,7 +5111,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>4.6299771481737502E-8</v>
+        <v>4.6299771481737198E-8</v>
       </c>
       <c r="B196" s="1">
         <v>0.99922299999999997</v>
@@ -5133,7 +5135,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>4.7304235767451697E-8</v>
+        <v>4.7304235767451499E-8</v>
       </c>
       <c r="B197" s="1">
         <v>0.99922299999999997</v>
@@ -5157,7 +5159,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>4.8308700053165998E-8</v>
+        <v>4.8308700053165799E-8</v>
       </c>
       <c r="B198" s="1">
         <v>0.99922310000000003</v>
@@ -5181,7 +5183,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>4.9313164338880299E-8</v>
+        <v>4.9313164338880001E-8</v>
       </c>
       <c r="B199" s="1">
         <v>0.99922319999999998</v>
@@ -5205,7 +5207,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>5.0317628624594599E-8</v>
+        <v>5.0317628624594301E-8</v>
       </c>
       <c r="B200" s="1">
         <v>0.99922330000000004</v>
@@ -5229,7 +5231,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>5.1322092910308801E-8</v>
+        <v>5.1322092910308602E-8</v>
       </c>
       <c r="B201" s="1">
         <v>0.99922339999999998</v>
@@ -5272,7 +5274,7 @@
       </c>
       <c r="J202" s="2">
         <f t="shared" si="3"/>
-        <v>2.9999999995311555E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -5280,7 +5282,7 @@
         <v>1.0751953125000001E-7</v>
       </c>
       <c r="B203" s="1">
-        <v>0.99922279999999997</v>
+        <v>0.99922250000000001</v>
       </c>
       <c r="C203" s="1">
         <v>0.99739580000000005</v>
@@ -5296,7 +5298,7 @@
       </c>
       <c r="J203" s="2">
         <f t="shared" si="3"/>
-        <v>3.9000000000566359E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -5304,7 +5306,7 @@
         <v>1.0755859375E-7</v>
       </c>
       <c r="B204" s="1">
-        <v>0.99921970000000004</v>
+        <v>0.99921579999999999</v>
       </c>
       <c r="C204" s="1">
         <v>0.9921875</v>
@@ -5320,7 +5322,7 @@
       </c>
       <c r="J204" s="2">
         <f t="shared" si="3"/>
-        <v>3.3799999999972741E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -5328,7 +5330,7 @@
         <v>1.0763671875E-7</v>
       </c>
       <c r="B205" s="1">
-        <v>0.99919000000000002</v>
+        <v>0.99915620000000005</v>
       </c>
       <c r="C205" s="1">
         <v>0.98177080000000005</v>
@@ -5344,7 +5346,7 @@
       </c>
       <c r="J205" s="2">
         <f t="shared" si="3"/>
-        <v>1.4190000000002811E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -5352,7 +5354,7 @@
         <v>1.0779296875E-7</v>
       </c>
       <c r="B206" s="1">
-        <v>0.99892800000000004</v>
+        <v>0.99878610000000001</v>
       </c>
       <c r="C206" s="1">
         <v>0.9609375</v>
@@ -5368,7 +5370,7 @@
       </c>
       <c r="J206" s="2">
         <f t="shared" si="3"/>
-        <v>2.5960000000002648E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -5376,7 +5378,7 @@
         <v>1.0798828125E-7</v>
       </c>
       <c r="B207" s="1">
-        <v>0.99796180000000001</v>
+        <v>0.99770219999999998</v>
       </c>
       <c r="C207" s="1">
         <v>0.93489580000000005</v>
@@ -5392,7 +5394,7 @@
       </c>
       <c r="J207" s="2">
         <f t="shared" si="3"/>
-        <v>3.3640000000001447E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -5400,7 +5402,7 @@
         <v>1.0818359375000001E-7</v>
       </c>
       <c r="B208" s="1">
-        <v>0.99595739999999999</v>
+        <v>0.99562099999999998</v>
       </c>
       <c r="C208" s="1">
         <v>0.90885419999999995</v>
@@ -5416,7 +5418,7 @@
       </c>
       <c r="J208" s="2">
         <f t="shared" si="3"/>
-        <v>3.9780000000000371E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -5424,7 +5426,7 @@
         <v>1.0837890625E-7</v>
       </c>
       <c r="B209" s="1">
-        <v>0.99260709999999996</v>
+        <v>0.99220929999999996</v>
       </c>
       <c r="C209" s="1">
         <v>0.8828125</v>
@@ -5440,7 +5442,7 @@
       </c>
       <c r="J209" s="2">
         <f t="shared" si="3"/>
-        <v>4.446000000000172E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -5448,7 +5450,7 @@
         <v>1.0857421875E-7</v>
       </c>
       <c r="B210" s="1">
-        <v>0.98766529999999997</v>
+        <v>0.98722069999999995</v>
       </c>
       <c r="C210" s="1">
         <v>0.85677080000000005</v>
@@ -5464,7 +5466,7 @@
       </c>
       <c r="J210" s="2">
         <f t="shared" si="3"/>
-        <v>4.7750000000001958E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -5472,7 +5474,7 @@
         <v>1.0876953124999999E-7</v>
       </c>
       <c r="B211" s="1">
-        <v>0.98094510000000001</v>
+        <v>0.98046759999999999</v>
       </c>
       <c r="C211" s="1">
         <v>0.83072919999999995</v>
@@ -5488,7 +5490,7 @@
       </c>
       <c r="J211" s="2">
         <f t="shared" si="3"/>
-        <v>4.9779999999999269E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -5496,7 +5498,7 @@
         <v>1.0896484375E-7</v>
       </c>
       <c r="B212" s="1">
-        <v>0.97231469999999998</v>
+        <v>0.97181689999999998</v>
       </c>
       <c r="C212" s="1">
         <v>0.8046875</v>
@@ -5512,7 +5514,7 @@
       </c>
       <c r="J212" s="2">
         <f t="shared" si="3"/>
-        <v>4.9489999999996481E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -5520,7 +5522,7 @@
         <v>1.0955078125E-7</v>
       </c>
       <c r="B213" s="1">
-        <v>0.93437530000000002</v>
+        <v>0.93388040000000005</v>
       </c>
       <c r="C213" s="1">
         <v>0.7265625</v>
@@ -5536,7 +5538,7 @@
       </c>
       <c r="J213" s="2">
         <f t="shared" si="3"/>
-        <v>4.5229999999996107E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -5544,7 +5546,7 @@
         <v>1.0994140625E-7</v>
       </c>
       <c r="B214" s="1">
-        <v>0.8991711</v>
+        <v>0.89871880000000004</v>
       </c>
       <c r="C214" s="1">
         <v>0.67447919999999995</v>
@@ -5560,7 +5562,7 @@
       </c>
       <c r="J214" s="2">
         <f t="shared" si="3"/>
-        <v>4.2260000000005071E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -5568,7 +5570,7 @@
         <v>1.1013671875E-7</v>
       </c>
       <c r="B215" s="1">
-        <v>0.87880650000000005</v>
+        <v>0.8783839</v>
       </c>
       <c r="C215" s="1">
         <v>0.6484375</v>
@@ -5584,7 +5586,7 @@
       </c>
       <c r="J215" s="2">
         <f t="shared" si="3"/>
-        <v>3.8890000000002534E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -5592,7 +5594,7 @@
         <v>1.1033203125000001E-7</v>
       </c>
       <c r="B216" s="1">
-        <v>0.8567515</v>
+        <v>0.85636259999999997</v>
       </c>
       <c r="C216" s="1">
         <v>0.62239580000000005</v>
@@ -5608,7 +5610,7 @@
       </c>
       <c r="J216" s="2">
         <f t="shared" si="3"/>
-        <v>3.5220000000002472E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -5616,7 +5618,7 @@
         <v>1.1052734375E-7</v>
       </c>
       <c r="B217" s="1">
-        <v>0.83314100000000002</v>
+        <v>0.8327888</v>
       </c>
       <c r="C217" s="1">
         <v>0.59635419999999995</v>
@@ -5632,7 +5634,7 @@
       </c>
       <c r="J217" s="2">
         <f t="shared" si="3"/>
-        <v>3.1380000000003072E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -5640,7 +5642,7 @@
         <v>1.1072265625E-7</v>
       </c>
       <c r="B218" s="1">
-        <v>0.80812150000000005</v>
+        <v>0.80780770000000002</v>
       </c>
       <c r="C218" s="1">
         <v>0.5703125</v>
@@ -5656,7 +5658,7 @@
       </c>
       <c r="J218" s="2">
         <f t="shared" si="3"/>
-        <v>2.7430000000006061E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -5664,7 +5666,7 @@
         <v>1.1091796874999999E-7</v>
       </c>
       <c r="B219" s="1">
-        <v>0.78184690000000001</v>
+        <v>0.78157259999999995</v>
       </c>
       <c r="C219" s="1">
         <v>0.54427080000000005</v>
@@ -5680,7 +5682,7 @@
       </c>
       <c r="J219" s="2">
         <f t="shared" si="3"/>
-        <v>2.3459999999997372E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -5688,7 +5690,7 @@
         <v>1.1111328125E-7</v>
       </c>
       <c r="B220" s="1">
-        <v>0.75447520000000001</v>
+        <v>0.75424060000000004</v>
       </c>
       <c r="C220" s="1">
         <v>0.51822919999999995</v>
@@ -5704,7 +5706,7 @@
       </c>
       <c r="J220" s="2">
         <f t="shared" si="3"/>
-        <v>1.9559999999996247E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -5712,7 +5714,7 @@
         <v>1.1130859375E-7</v>
       </c>
       <c r="B221" s="1">
-        <v>0.72616499999999995</v>
+        <v>0.72596939999999999</v>
       </c>
       <c r="C221" s="1">
         <v>0.4921875</v>
@@ -5728,7 +5730,7 @@
       </c>
       <c r="J221" s="2">
         <f t="shared" si="3"/>
-        <v>1.5779999999998573E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -5736,7 +5738,7 @@
         <v>1.1150390624999999E-7</v>
       </c>
       <c r="B222" s="1">
-        <v>0.69707220000000003</v>
+        <v>0.69691440000000004</v>
       </c>
       <c r="C222" s="1">
         <v>0.4661458</v>
@@ -5752,7 +5754,7 @@
       </c>
       <c r="J222" s="2">
         <f t="shared" si="3"/>
-        <v>8.7999999999976986E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -5760,7 +5762,7 @@
         <v>1.1189453125E-7</v>
       </c>
       <c r="B223" s="1">
-        <v>0.6371367</v>
+        <v>0.63704870000000002</v>
       </c>
       <c r="C223" s="1">
         <v>0.4140625</v>
@@ -5776,7 +5778,7 @@
       </c>
       <c r="J223" s="2">
         <f t="shared" si="3"/>
-        <v>2.8199999999922731E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -5784,7 +5786,7 @@
         <v>1.1228515625E-7</v>
       </c>
       <c r="B224" s="1">
-        <v>0.57578339999999995</v>
+        <v>0.57575520000000002</v>
       </c>
       <c r="C224" s="1">
         <v>0.3619792</v>
@@ -5800,7 +5802,7 @@
       </c>
       <c r="J224" s="2">
         <f t="shared" si="3"/>
-        <v>1.9700000000066886E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -5808,7 +5810,7 @@
         <v>1.1267578125E-7</v>
       </c>
       <c r="B225" s="1">
-        <v>0.51396719999999996</v>
+        <v>0.51398690000000002</v>
       </c>
       <c r="C225" s="1">
         <v>0.3098958</v>
@@ -5824,7 +5826,7 @@
       </c>
       <c r="J225" s="2">
         <f t="shared" si="3"/>
-        <v>5.539999999998324E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -5832,7 +5834,7 @@
         <v>1.1306640625000001E-7</v>
       </c>
       <c r="B226" s="1">
-        <v>0.45245489999999999</v>
+        <v>0.45251029999999998</v>
       </c>
       <c r="C226" s="1">
         <v>0.2578125</v>
@@ -5848,7 +5850,7 @@
       </c>
       <c r="J226" s="2">
         <f t="shared" si="3"/>
-        <v>7.9099999999998616E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -5856,7 +5858,7 @@
         <v>1.1345703125E-7</v>
       </c>
       <c r="B227" s="1">
-        <v>0.39181709999999997</v>
+        <v>0.39189619999999997</v>
       </c>
       <c r="C227" s="1">
         <v>0.2057292</v>
@@ -5872,7 +5874,7 @@
       </c>
       <c r="J227" s="2">
         <f t="shared" si="3"/>
-        <v>9.2099999999983861E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -5880,7 +5882,7 @@
         <v>1.1384765625E-7</v>
       </c>
       <c r="B228" s="1">
-        <v>0.33243410000000001</v>
+        <v>0.33252619999999999</v>
       </c>
       <c r="C228" s="1">
         <v>0.1536458</v>
@@ -5896,7 +5898,7 @@
       </c>
       <c r="J228" s="2">
         <f t="shared" si="3"/>
-        <v>9.5000000000011742E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -5904,7 +5906,7 @@
         <v>1.1404296875E-7</v>
       </c>
       <c r="B229" s="1">
-        <v>0.30328440000000001</v>
+        <v>0.30337940000000002</v>
       </c>
       <c r="C229" s="1">
         <v>0.1276042</v>
@@ -5920,7 +5922,7 @@
       </c>
       <c r="J229" s="2">
         <f t="shared" si="3"/>
-        <v>9.5800000000034746E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -5928,7 +5930,7 @@
         <v>1.1423828124999999E-7</v>
       </c>
       <c r="B230" s="1">
-        <v>0.27451439999999999</v>
+        <v>0.27461020000000003</v>
       </c>
       <c r="C230" s="1">
         <v>0.1015625</v>
@@ -5944,7 +5946,7 @@
       </c>
       <c r="J230" s="2">
         <f t="shared" si="3"/>
-        <v>9.4700000000003115E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -5952,7 +5954,7 @@
         <v>1.1443359375E-7</v>
       </c>
       <c r="B231" s="1">
-        <v>0.2461275</v>
+        <v>0.2462222</v>
       </c>
       <c r="C231" s="1">
         <v>7.5520840000000006E-2</v>
@@ -5968,7 +5970,7 @@
       </c>
       <c r="J231" s="2">
         <f t="shared" si="3"/>
-        <v>8.3200000000005492E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -5976,7 +5978,7 @@
         <v>1.1462890625E-7</v>
       </c>
       <c r="B232" s="1">
-        <v>0.21811949999999999</v>
+        <v>0.2182027</v>
       </c>
       <c r="C232" s="1">
         <v>4.9479170000000003E-2</v>
@@ -5992,7 +5994,7 @@
       </c>
       <c r="J232" s="2">
         <f t="shared" si="3"/>
-        <v>7.9600000000012994E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -6000,7 +6002,7 @@
         <v>1.1480468750000001E-7</v>
       </c>
       <c r="B233" s="1">
-        <v>0.19322819999999999</v>
+        <v>0.1933078</v>
       </c>
       <c r="C233" s="1">
         <v>2.6041669999999999E-2</v>
@@ -6088,7 +6090,7 @@
       </c>
       <c r="J236" s="2">
         <f t="shared" si="3"/>
-        <v>1.9199999999996997E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -6096,7 +6098,7 @@
         <v>1.15060373919743E-7</v>
       </c>
       <c r="B237" s="1">
-        <v>0.1575143</v>
+        <v>0.15753349999999999</v>
       </c>
       <c r="C237" s="1">
         <v>0</v>
@@ -6112,7 +6114,7 @@
       </c>
       <c r="J237" s="2">
         <f t="shared" si="3"/>
-        <v>4.6000000000018249E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -6120,7 +6122,7 @@
         <v>1.15119458775565E-7</v>
       </c>
       <c r="B238" s="1">
-        <v>0.14937259999999999</v>
+        <v>0.14941860000000001</v>
       </c>
       <c r="C238" s="1">
         <v>0</v>
@@ -6136,7 +6138,7 @@
       </c>
       <c r="J238" s="2">
         <f t="shared" si="3"/>
-        <v>8.0699999999989114E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -6144,7 +6146,7 @@
         <v>1.1517854363138599E-7</v>
       </c>
       <c r="B239" s="1">
-        <v>0.14130300000000001</v>
+        <v>0.1413837</v>
       </c>
       <c r="C239" s="1">
         <v>0</v>
@@ -6160,7 +6162,7 @@
       </c>
       <c r="J239" s="2">
         <f t="shared" si="3"/>
-        <v>1.2309999999998711E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -6168,7 +6170,7 @@
         <v>1.1523762848720799E-7</v>
       </c>
       <c r="B240" s="1">
-        <v>0.1333057</v>
+        <v>0.13342879999999999</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
@@ -6184,7 +6186,7 @@
       </c>
       <c r="J240" s="2">
         <f t="shared" si="3"/>
-        <v>1.7329999999998735E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -6192,7 +6194,7 @@
         <v>1.15296713343029E-7</v>
       </c>
       <c r="B241" s="1">
-        <v>0.12538050000000001</v>
+        <v>0.12555379999999999</v>
       </c>
       <c r="C241" s="1">
         <v>0</v>
@@ -6208,7 +6210,7 @@
       </c>
       <c r="J241" s="2">
         <f t="shared" si="3"/>
-        <v>2.3130000000000372E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -6216,7 +6218,7 @@
         <v>1.15355798198851E-7</v>
       </c>
       <c r="B242" s="1">
-        <v>0.11752749999999999</v>
+        <v>0.1177588</v>
       </c>
       <c r="C242" s="1">
         <v>0</v>
@@ -6232,7 +6234,7 @@
       </c>
       <c r="J242" s="2">
         <f t="shared" si="3"/>
-        <v>2.9699999999999172E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -6240,7 +6242,7 @@
         <v>1.15414883054673E-7</v>
       </c>
       <c r="B243" s="1">
-        <v>0.1097467</v>
+        <v>0.11004369999999999</v>
       </c>
       <c r="C243" s="1">
         <v>0</v>
@@ -6256,7 +6258,7 @@
       </c>
       <c r="J243" s="2">
         <f t="shared" si="3"/>
-        <v>3.7283000000000455E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -6264,7 +6266,7 @@
         <v>1.1561019555467299E-7</v>
       </c>
       <c r="B244" s="1">
-        <v>8.4963869999999997E-2</v>
+        <v>8.5336700000000001E-2</v>
       </c>
       <c r="C244" s="1">
         <v>0</v>
@@ -6280,7 +6282,7 @@
       </c>
       <c r="J244" s="2">
         <f t="shared" si="3"/>
-        <v>4.326000000000052E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -6288,7 +6290,7 @@
         <v>1.15805508054673E-7</v>
       </c>
       <c r="B245" s="1">
-        <v>6.1672369999999997E-2</v>
+        <v>6.2104970000000002E-2</v>
       </c>
       <c r="C245" s="1">
         <v>0</v>
@@ -6304,7 +6306,7 @@
       </c>
       <c r="J245" s="2">
         <f t="shared" si="3"/>
-        <v>4.7723999999999683E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -6312,7 +6314,7 @@
         <v>1.16000820554673E-7</v>
       </c>
       <c r="B246" s="1">
-        <v>4.0111260000000003E-2</v>
+        <v>4.05885E-2</v>
       </c>
       <c r="C246" s="1">
         <v>0</v>
@@ -6328,7 +6330,7 @@
       </c>
       <c r="J246" s="2">
         <f t="shared" si="3"/>
-        <v>5.0779999999999922E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -6336,7 +6338,7 @@
         <v>1.16196133054673E-7</v>
       </c>
       <c r="B247" s="1">
-        <v>2.0459120000000001E-2</v>
+        <v>2.096692E-2</v>
       </c>
       <c r="C247" s="1">
         <v>0</v>
@@ -6352,7 +6354,7 @@
       </c>
       <c r="J247" s="2">
         <f t="shared" si="3"/>
-        <v>5.2543999999999985E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -6360,7 +6362,7 @@
         <v>1.16391445554673E-7</v>
       </c>
       <c r="B248" s="1">
-        <v>2.838194E-3</v>
+        <v>3.3636339999999999E-3</v>
       </c>
       <c r="C248" s="1">
         <v>0</v>
@@ -6376,7 +6378,7 @@
       </c>
       <c r="J248" s="2">
         <f t="shared" si="3"/>
-        <v>5.3141999999999946E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -6384,7 +6386,7 @@
         <v>1.16586758054673E-7</v>
       </c>
       <c r="B249" s="1">
-        <v>-1.268098E-2</v>
+        <v>-1.214956E-2</v>
       </c>
       <c r="C249" s="1">
         <v>0</v>
@@ -6400,7 +6402,7 @@
       </c>
       <c r="J249" s="2">
         <f t="shared" si="3"/>
-        <v>5.2704999999999766E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -6408,7 +6410,7 @@
         <v>1.16782070554673E-7</v>
       </c>
       <c r="B250" s="1">
-        <v>-2.6074469999999999E-2</v>
+        <v>-2.5547420000000001E-2</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
@@ -6424,7 +6426,7 @@
       </c>
       <c r="J250" s="2">
         <f t="shared" si="3"/>
-        <v>5.136899999999972E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -6432,7 +6434,7 @@
         <v>1.16977383054673E-7</v>
       </c>
       <c r="B251" s="1">
-        <v>-3.7359759999999999E-2</v>
+        <v>-3.6846070000000002E-2</v>
       </c>
       <c r="C251" s="1">
         <v>0</v>
@@ -6448,7 +6450,7 @@
       </c>
       <c r="J251" s="2">
         <f t="shared" si="3"/>
-        <v>4.9265999999999893E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -6456,7 +6458,7 @@
         <v>1.1717269555467301E-7</v>
       </c>
       <c r="B252" s="1">
-        <v>-4.6590289999999999E-2</v>
+        <v>-4.6097630000000001E-2</v>
       </c>
       <c r="C252" s="1">
         <v>0</v>
@@ -6472,7 +6474,7 @@
       </c>
       <c r="J252" s="2">
         <f t="shared" si="3"/>
-        <v>4.6529000000000015E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -6480,7 +6482,7 @@
         <v>1.17368008054673E-7</v>
       </c>
       <c r="B253" s="1">
-        <v>-5.3850179999999997E-2</v>
+        <v>-5.3384889999999997E-2</v>
       </c>
       <c r="C253" s="1">
         <v>0</v>
@@ -6496,7 +6498,7 @@
       </c>
       <c r="J253" s="2">
         <f t="shared" si="3"/>
-        <v>4.3284999999999851E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -6504,7 +6506,7 @@
         <v>1.17563320554673E-7</v>
       </c>
       <c r="B254" s="1">
-        <v>-5.9248879999999997E-2</v>
+        <v>-5.8816029999999998E-2</v>
       </c>
       <c r="C254" s="1">
         <v>0</v>
@@ -6520,7 +6522,7 @@
       </c>
       <c r="J254" s="2">
         <f t="shared" si="3"/>
-        <v>3.9654999999999552E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -6528,7 +6530,7 @@
         <v>1.1775863305467299E-7</v>
       </c>
       <c r="B255" s="1">
-        <v>-6.2916169999999993E-2</v>
+        <v>-6.2519619999999998E-2</v>
       </c>
       <c r="C255" s="1">
         <v>0</v>
@@ -6544,7 +6546,7 @@
       </c>
       <c r="J255" s="2">
         <f t="shared" si="3"/>
-        <v>3.5750000000001059E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -6552,7 +6554,7 @@
         <v>1.17953945554673E-7</v>
       </c>
       <c r="B256" s="1">
-        <v>-6.4997250000000006E-2</v>
+        <v>-6.4639749999999996E-2</v>
       </c>
       <c r="C256" s="1">
         <v>0</v>
@@ -6568,7 +6570,7 @@
       </c>
       <c r="J256" s="2">
         <f t="shared" si="3"/>
-        <v>3.1677000000000788E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -6576,7 +6578,7 @@
         <v>1.18149258054673E-7</v>
       </c>
       <c r="B257" s="1">
-        <v>-6.5648310000000001E-2</v>
+        <v>-6.5331539999999994E-2</v>
       </c>
       <c r="C257" s="1">
         <v>0</v>
@@ -6592,7 +6594,7 @@
       </c>
       <c r="J257" s="2">
         <f t="shared" si="3"/>
-        <v>2.7527000000000801E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -6600,7 +6602,7 @@
         <v>1.1834457055467299E-7</v>
       </c>
       <c r="B258" s="1">
-        <v>-6.5032300000000001E-2</v>
+        <v>-6.4757029999999993E-2</v>
       </c>
       <c r="C258" s="1">
         <v>0</v>
@@ -6616,7 +6618,7 @@
       </c>
       <c r="J258" s="2">
         <f t="shared" si="3"/>
-        <v>2.3388000000000575E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -6624,7 +6626,7 @@
         <v>1.18539883054673E-7</v>
       </c>
       <c r="B259" s="1">
-        <v>-6.3315200000000002E-2</v>
+        <v>-6.3081319999999996E-2</v>
       </c>
       <c r="C259" s="1">
         <v>0</v>
@@ -6640,7 +6642,7 @@
       </c>
       <c r="J259" s="2">
         <f t="shared" ref="J259:J322" si="4" xml:space="preserve"> ABS(F260-B260)</f>
-        <v>1.9330000000000042E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -6648,7 +6650,7 @@
         <v>1.18735195554673E-7</v>
       </c>
       <c r="B260" s="1">
-        <v>-6.0662590000000002E-2</v>
+        <v>-6.0469290000000002E-2</v>
       </c>
       <c r="C260" s="1">
         <v>0</v>
@@ -6664,7 +6666,7 @@
       </c>
       <c r="J260" s="2">
         <f t="shared" si="4"/>
-        <v>1.5418999999999849E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -6672,7 +6674,7 @@
         <v>1.18930508054673E-7</v>
       </c>
       <c r="B261" s="1">
-        <v>-5.7236780000000001E-2</v>
+        <v>-5.7082590000000002E-2</v>
       </c>
       <c r="C261" s="1">
         <v>0</v>
@@ -6688,7 +6690,7 @@
       </c>
       <c r="J261" s="2">
         <f t="shared" si="4"/>
-        <v>1.1706000000000216E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -6696,7 +6698,7 @@
         <v>1.19125820554673E-7</v>
       </c>
       <c r="B262" s="1">
-        <v>-5.3194209999999999E-2</v>
+        <v>-5.3077149999999997E-2</v>
       </c>
       <c r="C262" s="1">
         <v>0</v>
@@ -6712,7 +6714,7 @@
       </c>
       <c r="J262" s="2">
         <f t="shared" si="4"/>
-        <v>8.2359999999996603E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -6720,7 +6722,7 @@
         <v>1.1932113305467301E-7</v>
       </c>
       <c r="B263" s="1">
-        <v>-4.8683369999999997E-2</v>
+        <v>-4.860101E-2</v>
       </c>
       <c r="C263" s="1">
         <v>0</v>
@@ -6736,7 +6738,7 @@
       </c>
       <c r="J263" s="2">
         <f t="shared" si="4"/>
-        <v>5.0410000000000732E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -6744,7 +6746,7 @@
         <v>1.1951644555467301E-7</v>
       </c>
       <c r="B264" s="1">
-        <v>-4.384308E-2</v>
+        <v>-4.3792669999999999E-2</v>
       </c>
       <c r="C264" s="1">
         <v>0</v>
@@ -6760,7 +6762,7 @@
       </c>
       <c r="J264" s="2">
         <f t="shared" si="4"/>
-        <v>2.1449999999999247E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -6768,7 +6770,7 @@
         <v>1.1971175805467299E-7</v>
       </c>
       <c r="B265" s="1">
-        <v>-3.8801139999999998E-2</v>
+        <v>-3.8779689999999999E-2</v>
       </c>
       <c r="C265" s="1">
         <v>0</v>
@@ -6784,7 +6786,7 @@
       </c>
       <c r="J265" s="2">
         <f t="shared" si="4"/>
-        <v>4.3600000000018624E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -6792,7 +6794,7 @@
         <v>1.1990707055467299E-7</v>
       </c>
       <c r="B266" s="1">
-        <v>-3.3673399999999999E-2</v>
+        <v>-3.3677760000000001E-2</v>
       </c>
       <c r="C266" s="1">
         <v>0</v>
@@ -6808,7 +6810,7 @@
       </c>
       <c r="J266" s="2">
         <f t="shared" si="4"/>
-        <v>2.6929999999997928E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -6816,7 +6818,7 @@
         <v>1.20102383054673E-7</v>
       </c>
       <c r="B267" s="1">
-        <v>-2.8563100000000001E-2</v>
+        <v>-2.8590029999999999E-2</v>
       </c>
       <c r="C267" s="1">
         <v>0</v>
@@ -6832,7 +6834,7 @@
       </c>
       <c r="J267" s="2">
         <f t="shared" si="4"/>
-        <v>4.6259999999999357E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -6840,7 +6842,7 @@
         <v>1.20297695554673E-7</v>
       </c>
       <c r="B268" s="1">
-        <v>-2.356055E-2</v>
+        <v>-2.3606809999999999E-2</v>
       </c>
       <c r="C268" s="1">
         <v>0</v>
@@ -6856,7 +6858,7 @@
       </c>
       <c r="J268" s="2">
         <f t="shared" si="4"/>
-        <v>6.2400000000000649E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -6864,7 +6866,7 @@
         <v>1.2049300805467301E-7</v>
       </c>
       <c r="B269" s="1">
-        <v>-1.8743070000000001E-2</v>
+        <v>-1.8805470000000001E-2</v>
       </c>
       <c r="C269" s="1">
         <v>0</v>
@@ -6880,7 +6882,7 @@
       </c>
       <c r="J269" s="2">
         <f t="shared" si="4"/>
-        <v>7.5439999999999535E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -6888,7 +6890,7 @@
         <v>1.2068832055467301E-7</v>
       </c>
       <c r="B270" s="1">
-        <v>-1.4175190000000001E-2</v>
+        <v>-1.425063E-2</v>
       </c>
       <c r="C270" s="1">
         <v>0</v>
@@ -6904,7 +6906,7 @@
       </c>
       <c r="J270" s="2">
         <f t="shared" si="4"/>
-        <v>8.5508999999999238E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -6912,7 +6914,7 @@
         <v>1.2088363305467299E-7</v>
       </c>
       <c r="B271" s="1">
-        <v>-9.9090510000000003E-3</v>
+        <v>-9.9945599999999996E-3</v>
       </c>
       <c r="C271" s="1">
         <v>0</v>
@@ -6928,7 +6930,7 @@
       </c>
       <c r="J271" s="2">
         <f t="shared" si="4"/>
-        <v>9.2806999999999439E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -6936,7 +6938,7 @@
         <v>1.2107894555467299E-7</v>
       </c>
       <c r="B272" s="1">
-        <v>-5.9849430000000004E-3</v>
+        <v>-6.0777499999999998E-3</v>
       </c>
       <c r="C272" s="1">
         <v>0</v>
@@ -6952,7 +6954,7 @@
       </c>
       <c r="J272" s="2">
         <f t="shared" si="4"/>
-        <v>9.7532999999999908E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -6960,7 +6962,7 @@
         <v>1.21274258054673E-7</v>
       </c>
       <c r="B273" s="1">
-        <v>-2.4320600000000002E-3</v>
+        <v>-2.5295930000000001E-3</v>
       </c>
       <c r="C273" s="1">
         <v>0</v>
@@ -6976,7 +6978,7 @@
       </c>
       <c r="J273" s="2">
         <f t="shared" si="4"/>
-        <v>9.9918400000000083E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -6984,7 +6986,7 @@
         <v>1.21469570554673E-7</v>
       </c>
       <c r="B274" s="1">
-        <v>7.3069080000000004E-4</v>
+        <v>6.3077239999999996E-4</v>
       </c>
       <c r="C274" s="1">
         <v>0</v>
@@ -7000,7 +7002,7 @@
       </c>
       <c r="J274" s="2">
         <f t="shared" si="4"/>
-        <v>1.0020499999999991E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -7008,7 +7010,7 @@
         <v>1.2166488305467301E-7</v>
       </c>
       <c r="B275" s="1">
-        <v>3.493768E-3</v>
+        <v>3.393563E-3</v>
       </c>
       <c r="C275" s="1">
         <v>0</v>
@@ -7024,7 +7026,7 @@
       </c>
       <c r="J275" s="2">
         <f t="shared" si="4"/>
-        <v>9.8643000000000688E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -7032,7 +7034,7 @@
         <v>1.2186019555467299E-7</v>
       </c>
       <c r="B276" s="1">
-        <v>5.8560260000000003E-3</v>
+        <v>5.7573829999999996E-3</v>
       </c>
       <c r="C276" s="1">
         <v>0</v>
@@ -7048,7 +7050,7 @@
       </c>
       <c r="J276" s="2">
         <f t="shared" si="4"/>
-        <v>9.5487999999999476E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -7056,7 +7058,7 @@
         <v>1.2205550805467299E-7</v>
       </c>
       <c r="B277" s="1">
-        <v>7.8237099999999993E-3</v>
+        <v>7.7282219999999999E-3</v>
       </c>
       <c r="C277" s="1">
         <v>0</v>
@@ -7072,7 +7074,7 @@
       </c>
       <c r="J277" s="2">
         <f t="shared" si="4"/>
-        <v>9.0991999999999809E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -7080,7 +7082,7 @@
         <v>1.22250820554673E-7</v>
       </c>
       <c r="B278" s="1">
-        <v>9.4094399999999998E-3</v>
+        <v>9.318448E-3</v>
       </c>
       <c r="C278" s="1">
         <v>0</v>
@@ -7096,7 +7098,7 @@
       </c>
       <c r="J278" s="2">
         <f t="shared" si="4"/>
-        <v>8.54000000000011E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -7104,7 +7106,7 @@
         <v>1.22446133054673E-7</v>
       </c>
       <c r="B279" s="1">
-        <v>1.06312E-2</v>
+        <v>1.0545799999999999E-2</v>
       </c>
       <c r="C279" s="1">
         <v>0</v>
@@ -7120,7 +7122,7 @@
       </c>
       <c r="J279" s="2">
         <f t="shared" si="4"/>
-        <v>7.8949999999999507E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -7128,7 +7130,7 @@
         <v>1.2264144555467301E-7</v>
       </c>
       <c r="B280" s="1">
-        <v>1.151137E-2</v>
+        <v>1.143242E-2</v>
       </c>
       <c r="C280" s="1">
         <v>0</v>
@@ -7144,7 +7146,7 @@
       </c>
       <c r="J280" s="2">
         <f t="shared" si="4"/>
-        <v>7.1850000000000039E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -7152,7 +7154,7 @@
         <v>1.2283675805467301E-7</v>
       </c>
       <c r="B281" s="1">
-        <v>1.207576E-2</v>
+        <v>1.200391E-2</v>
       </c>
       <c r="C281" s="1">
         <v>0</v>
@@ -7168,7 +7170,7 @@
       </c>
       <c r="J281" s="2">
         <f t="shared" si="4"/>
-        <v>6.4329999999999596E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -7176,7 +7178,7 @@
         <v>1.2303207055467299E-7</v>
       </c>
       <c r="B282" s="1">
-        <v>1.2352749999999999E-2</v>
+        <v>1.228842E-2</v>
       </c>
       <c r="C282" s="1">
         <v>0</v>
@@ -7192,7 +7194,7 @@
       </c>
       <c r="J282" s="2">
         <f t="shared" si="4"/>
-        <v>5.6550000000000697E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -7200,7 +7202,7 @@
         <v>1.2322738305467299E-7</v>
       </c>
       <c r="B283" s="1">
-        <v>1.237244E-2</v>
+        <v>1.2315889999999999E-2</v>
       </c>
       <c r="C283" s="1">
         <v>0</v>
@@ -7216,7 +7218,7 @@
       </c>
       <c r="J283" s="2">
         <f t="shared" si="4"/>
-        <v>4.871000000000042E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -7224,7 +7226,7 @@
         <v>1.23422695554673E-7</v>
       </c>
       <c r="B284" s="1">
-        <v>1.216592E-2</v>
+        <v>1.211721E-2</v>
       </c>
       <c r="C284" s="1">
         <v>0</v>
@@ -7240,7 +7242,7 @@
       </c>
       <c r="J284" s="2">
         <f t="shared" si="4"/>
-        <v>4.0939999999999727E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -7248,7 +7250,7 @@
         <v>1.23618008054673E-7</v>
       </c>
       <c r="B285" s="1">
-        <v>1.176457E-2</v>
+        <v>1.1723630000000001E-2</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
@@ -7264,7 +7266,7 @@
       </c>
       <c r="J285" s="2">
         <f t="shared" si="4"/>
-        <v>3.3379999999999521E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -7272,7 +7274,7 @@
         <v>1.2381332055467301E-7</v>
       </c>
       <c r="B286" s="1">
-        <v>1.119945E-2</v>
+        <v>1.116607E-2</v>
       </c>
       <c r="C286" s="1">
         <v>0</v>
@@ -7288,7 +7290,7 @@
       </c>
       <c r="J286" s="2">
         <f t="shared" si="4"/>
-        <v>2.613999999999915E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -7296,7 +7298,7 @@
         <v>1.2400863305467301E-7</v>
       </c>
       <c r="B287" s="1">
-        <v>1.0500789999999999E-2</v>
+        <v>1.047465E-2</v>
       </c>
       <c r="C287" s="1">
         <v>0</v>
@@ -7312,7 +7314,7 @@
       </c>
       <c r="J287" s="2">
         <f t="shared" si="4"/>
-        <v>1.9316999999999598E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -7320,7 +7322,7 @@
         <v>1.2420394555467299E-7</v>
       </c>
       <c r="B288" s="1">
-        <v>9.6975559999999995E-3</v>
+        <v>9.6782389999999999E-3</v>
       </c>
       <c r="C288" s="1">
         <v>0</v>
@@ -7336,7 +7338,7 @@
       </c>
       <c r="J288" s="2">
         <f t="shared" si="4"/>
-        <v>1.2975999999999613E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -7344,7 +7346,7 @@
         <v>1.24399258054673E-7</v>
       </c>
       <c r="B289" s="1">
-        <v>8.8170479999999992E-3</v>
+        <v>8.8040719999999996E-3</v>
       </c>
       <c r="C289" s="1">
         <v>0</v>
@@ -7360,7 +7362,7 @@
       </c>
       <c r="J289" s="2">
         <f t="shared" si="4"/>
-        <v>7.1740000000004162E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -7368,7 +7370,7 @@
         <v>1.24594570554673E-7</v>
       </c>
       <c r="B290" s="1">
-        <v>7.8846369999999999E-3</v>
+        <v>7.8774629999999995E-3</v>
       </c>
       <c r="C290" s="1">
         <v>0</v>
@@ -7384,7 +7386,7 @@
       </c>
       <c r="J290" s="2">
         <f t="shared" si="4"/>
-        <v>1.9500000000005624E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -7392,7 +7394,7 @@
         <v>1.2478988305467301E-7</v>
       </c>
       <c r="B291" s="1">
-        <v>6.9235310000000001E-3</v>
+        <v>6.9215809999999996E-3</v>
       </c>
       <c r="C291" s="1">
         <v>0</v>
@@ -7408,7 +7410,7 @@
       </c>
       <c r="J291" s="2">
         <f t="shared" si="4"/>
-        <v>2.6690000000002823E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -7416,7 +7418,7 @@
         <v>1.2498519555467301E-7</v>
       </c>
       <c r="B292" s="1">
-        <v>5.954623E-3</v>
+        <v>5.9572920000000003E-3</v>
       </c>
       <c r="C292" s="1">
         <v>0</v>
@@ -7432,7 +7434,7 @@
       </c>
       <c r="J292" s="2">
         <f t="shared" si="4"/>
-        <v>6.6770000000000718E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -7440,7 +7442,7 @@
         <v>1.2518050805467299E-7</v>
       </c>
       <c r="B293" s="1">
-        <v>4.9963919999999997E-3</v>
+        <v>5.0030689999999997E-3</v>
       </c>
       <c r="C293" s="1">
         <v>0</v>
@@ -7456,7 +7458,7 @@
       </c>
       <c r="J293" s="2">
         <f t="shared" si="4"/>
-        <v>1.00730000000002E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -7464,7 +7466,7 @@
         <v>1.2537582055467299E-7</v>
       </c>
       <c r="B294" s="1">
-        <v>4.0648680000000001E-3</v>
+        <v>4.0749410000000003E-3</v>
       </c>
       <c r="C294" s="1">
         <v>0</v>
@@ -7480,7 +7482,7 @@
       </c>
       <c r="J294" s="2">
         <f t="shared" si="4"/>
-        <v>1.2873000000000051E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -7488,7 +7490,7 @@
         <v>1.25571133054673E-7</v>
       </c>
       <c r="B295" s="1">
-        <v>3.173637E-3</v>
+        <v>3.18651E-3</v>
       </c>
       <c r="C295" s="1">
         <v>0</v>
@@ -7504,7 +7506,7 @@
       </c>
       <c r="J295" s="2">
         <f t="shared" si="4"/>
-        <v>1.509699999999994E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -7512,7 +7514,7 @@
         <v>1.25766445554673E-7</v>
       </c>
       <c r="B296" s="1">
-        <v>2.333898E-3</v>
+        <v>2.348995E-3</v>
       </c>
       <c r="C296" s="1">
         <v>0</v>
@@ -7528,7 +7530,7 @@
       </c>
       <c r="J296" s="2">
         <f t="shared" si="4"/>
-        <v>1.6776999999999938E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -7536,7 +7538,7 @@
         <v>1.2596175805467301E-7</v>
       </c>
       <c r="B297" s="1">
-        <v>1.554548E-3</v>
+        <v>1.5713249999999999E-3</v>
       </c>
       <c r="C297" s="1">
         <v>0</v>
@@ -7552,7 +7554,7 @@
       </c>
       <c r="J297" s="2">
         <f t="shared" si="4"/>
-        <v>1.7947999999999944E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -7560,7 +7562,7 @@
         <v>1.2615707055467301E-7</v>
       </c>
       <c r="B298" s="1">
-        <v>8.4230640000000005E-4</v>
+        <v>8.6025439999999999E-4</v>
       </c>
       <c r="C298" s="1">
         <v>0</v>
@@ -7576,7 +7578,7 @@
       </c>
       <c r="J298" s="2">
         <f t="shared" si="4"/>
-        <v>1.8651300000000002E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -7584,7 +7586,7 @@
         <v>1.2635238305467299E-7</v>
       </c>
       <c r="B299" s="1">
-        <v>2.0185710000000001E-4</v>
+        <v>2.2050840000000001E-4</v>
       </c>
       <c r="C299" s="1">
         <v>0</v>
@@ -7600,7 +7602,7 @@
       </c>
       <c r="J299" s="2">
         <f t="shared" si="4"/>
-        <v>1.8931100000000006E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -7608,7 +7610,7 @@
         <v>1.26547695554673E-7</v>
       </c>
       <c r="B300" s="1">
-        <v>-3.639871E-4</v>
+        <v>-3.45056E-4</v>
       </c>
       <c r="C300" s="1">
         <v>0</v>
@@ -7624,7 +7626,7 @@
       </c>
       <c r="J300" s="2">
         <f t="shared" si="4"/>
-        <v>1.8834400000000045E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -7632,7 +7634,7 @@
         <v>1.26743008054673E-7</v>
       </c>
       <c r="B301" s="1">
-        <v>-8.5410670000000001E-4</v>
+        <v>-8.3527229999999996E-4</v>
       </c>
       <c r="C301" s="1">
         <v>0</v>
@@ -7648,7 +7650,7 @@
       </c>
       <c r="J301" s="2">
         <f t="shared" si="4"/>
-        <v>1.8409000000000047E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -7656,7 +7658,7 @@
         <v>1.26938320554673E-7</v>
       </c>
       <c r="B302" s="1">
-        <v>-1.268889E-3</v>
+        <v>-1.25048E-3</v>
       </c>
       <c r="C302" s="1">
         <v>0</v>
@@ -7672,7 +7674,7 @@
       </c>
       <c r="J302" s="2">
         <f t="shared" si="4"/>
-        <v>1.770299999999999E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -7680,7 +7682,7 @@
         <v>1.2713363305467301E-7</v>
       </c>
       <c r="B303" s="1">
-        <v>-1.610036E-3</v>
+        <v>-1.592333E-3</v>
       </c>
       <c r="C303" s="1">
         <v>0</v>
@@ -7696,7 +7698,7 @@
       </c>
       <c r="J303" s="2">
         <f t="shared" si="4"/>
-        <v>1.6762000000000027E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -7704,7 +7706,7 @@
         <v>1.2732894555467299E-7</v>
       </c>
       <c r="B304" s="1">
-        <v>-1.880374E-3</v>
+        <v>-1.863612E-3</v>
       </c>
       <c r="C304" s="1">
         <v>0</v>
@@ -7720,7 +7722,7 @@
       </c>
       <c r="J304" s="2">
         <f t="shared" si="4"/>
-        <v>1.563300000000014E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -7728,7 +7730,7 @@
         <v>1.2752425805467299E-7</v>
       </c>
       <c r="B305" s="1">
-        <v>-2.0836650000000002E-3</v>
+        <v>-2.068032E-3</v>
       </c>
       <c r="C305" s="1">
         <v>0</v>
@@ -7744,7 +7746,7 @@
       </c>
       <c r="J305" s="2">
         <f t="shared" si="4"/>
-        <v>1.4358999999999813E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -7752,7 +7754,7 @@
         <v>1.27719570554673E-7</v>
       </c>
       <c r="B306" s="1">
-        <v>-2.2244249999999999E-3</v>
+        <v>-2.2100660000000001E-3</v>
       </c>
       <c r="C306" s="1">
         <v>0</v>
@@ -7768,7 +7770,7 @@
       </c>
       <c r="J306" s="2">
         <f t="shared" si="4"/>
-        <v>1.2981999999999924E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -7776,7 +7778,7 @@
         <v>1.27914883054673E-7</v>
       </c>
       <c r="B307" s="1">
-        <v>-2.3077480000000001E-3</v>
+        <v>-2.2947660000000002E-3</v>
       </c>
       <c r="C307" s="1">
         <v>0</v>
@@ -7792,7 +7794,7 @@
       </c>
       <c r="J307" s="2">
         <f t="shared" si="4"/>
-        <v>1.1536999999999832E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -7800,7 +7802,7 @@
         <v>1.2811019555467301E-7</v>
       </c>
       <c r="B308" s="1">
-        <v>-2.339144E-3</v>
+        <v>-2.3276070000000002E-3</v>
       </c>
       <c r="C308" s="1">
         <v>0</v>
@@ -7816,7 +7818,7 @@
       </c>
       <c r="J308" s="2">
         <f t="shared" si="4"/>
-        <v>1.0061000000000011E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -7824,7 +7826,7 @@
         <v>1.2830550805467301E-7</v>
       </c>
       <c r="B309" s="1">
-        <v>-2.3243920000000002E-3</v>
+        <v>-2.3143310000000002E-3</v>
       </c>
       <c r="C309" s="1">
         <v>0</v>
@@ -7840,7 +7842,7 @@
       </c>
       <c r="J309" s="2">
         <f t="shared" si="4"/>
-        <v>8.5829999999999414E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -7848,7 +7850,7 @@
         <v>1.2850082055467299E-7</v>
       </c>
       <c r="B310" s="1">
-        <v>-2.2693959999999999E-3</v>
+        <v>-2.260813E-3</v>
       </c>
       <c r="C310" s="1">
         <v>0</v>
@@ -7864,7 +7866,7 @@
       </c>
       <c r="J310" s="2">
         <f t="shared" si="4"/>
-        <v>7.130000000000157E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -7872,7 +7874,7 @@
         <v>1.2869613305467299E-7</v>
       </c>
       <c r="B311" s="1">
-        <v>-2.1800690000000002E-3</v>
+        <v>-2.172939E-3</v>
       </c>
       <c r="C311" s="1">
         <v>0</v>
@@ -7888,7 +7890,7 @@
       </c>
       <c r="J311" s="2">
         <f t="shared" si="4"/>
-        <v>5.7259999999997348E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -7896,7 +7898,7 @@
         <v>1.28891445554673E-7</v>
       </c>
       <c r="B312" s="1">
-        <v>-2.0622209999999999E-3</v>
+        <v>-2.0564950000000002E-3</v>
       </c>
       <c r="C312" s="1">
         <v>0</v>
@@ -7912,7 +7914,7 @@
       </c>
       <c r="J312" s="2">
         <f t="shared" si="4"/>
-        <v>4.3899999999999495E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -7920,7 +7922,7 @@
         <v>1.29086758054673E-7</v>
       </c>
       <c r="B313" s="1">
-        <v>-1.92147E-3</v>
+        <v>-1.91708E-3</v>
       </c>
       <c r="C313" s="1">
         <v>0</v>
@@ -7936,7 +7938,7 @@
       </c>
       <c r="J313" s="2">
         <f t="shared" si="4"/>
-        <v>3.1370000000000616E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -7944,7 +7946,7 @@
         <v>1.2928207055467301E-7</v>
       </c>
       <c r="B314" s="1">
-        <v>-1.763159E-3</v>
+        <v>-1.760022E-3</v>
       </c>
       <c r="C314" s="1">
         <v>0</v>
@@ -7960,7 +7962,7 @@
       </c>
       <c r="J314" s="2">
         <f t="shared" si="4"/>
-        <v>1.981999999999982E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -7968,7 +7970,7 @@
         <v>1.2947738305467299E-7</v>
       </c>
       <c r="B315" s="1">
-        <v>-1.5922989999999999E-3</v>
+        <v>-1.5903169999999999E-3</v>
       </c>
       <c r="C315" s="1">
         <v>0</v>
@@ -7984,7 +7986,7 @@
       </c>
       <c r="J315" s="2">
         <f t="shared" si="4"/>
-        <v>9.3100000000002209E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -7992,7 +7994,7 @@
         <v>1.2967269555467299E-7</v>
       </c>
       <c r="B316" s="1">
-        <v>-1.4135129999999999E-3</v>
+        <v>-1.4125819999999999E-3</v>
       </c>
       <c r="C316" s="1">
         <v>0</v>
@@ -8008,7 +8010,7 @@
       </c>
       <c r="J316" s="2">
         <f t="shared" si="4"/>
-        <v>9.0000000000332869E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -8016,7 +8018,7 @@
         <v>1.29868008054673E-7</v>
       </c>
       <c r="B317" s="1">
-        <v>-1.231003E-3</v>
+        <v>-1.2310120000000001E-3</v>
       </c>
       <c r="C317" s="1">
         <v>0</v>
@@ -8032,7 +8034,7 @@
       </c>
       <c r="J317" s="2">
         <f t="shared" si="4"/>
-        <v>8.3299999999999694E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -8040,7 +8042,7 @@
         <v>1.30063320554673E-7</v>
       </c>
       <c r="B318" s="1">
-        <v>-1.0485270000000001E-3</v>
+        <v>-1.04936E-3</v>
       </c>
       <c r="C318" s="1">
         <v>0</v>
@@ -8056,7 +8058,7 @@
       </c>
       <c r="J318" s="2">
         <f t="shared" si="4"/>
-        <v>1.5409000000000516E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -8064,7 +8066,7 @@
         <v>1.3025863305467301E-7</v>
       </c>
       <c r="B319" s="1">
-        <v>-8.6938089999999998E-4</v>
+        <v>-8.7092180000000003E-4</v>
       </c>
       <c r="C319" s="1">
         <v>0</v>
@@ -8080,7 +8082,7 @@
       </c>
       <c r="J319" s="2">
         <f t="shared" si="4"/>
-        <v>2.1348999999999717E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -8088,7 +8090,7 @@
         <v>1.3045394555467301E-7</v>
       </c>
       <c r="B320" s="1">
-        <v>-6.9639820000000005E-4</v>
+        <v>-6.9853310000000002E-4</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>
@@ -8104,7 +8106,7 @@
       </c>
       <c r="J320" s="2">
         <f t="shared" si="4"/>
-        <v>2.6177000000000275E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -8112,7 +8114,7 @@
         <v>1.3064925805467299E-7</v>
       </c>
       <c r="B321" s="1">
-        <v>-5.3195510000000001E-4</v>
+        <v>-5.3457280000000003E-4</v>
       </c>
       <c r="C321" s="1">
         <v>0</v>
@@ -8128,7 +8130,7 @@
       </c>
       <c r="J321" s="2">
         <f t="shared" si="4"/>
-        <v>2.9940999999999583E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -8136,7 +8138,7 @@
         <v>1.3084457055467299E-7</v>
       </c>
       <c r="B322" s="1">
-        <v>-3.7798280000000002E-4</v>
+        <v>-3.8097689999999997E-4</v>
       </c>
       <c r="C322" s="1">
         <v>0</v>
@@ -8152,7 +8154,7 @@
       </c>
       <c r="J322" s="2">
         <f t="shared" si="4"/>
-        <v>3.2704000000000153E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -8160,7 +8162,7 @@
         <v>1.31039883054673E-7</v>
       </c>
       <c r="B323" s="1">
-        <v>-2.359869E-4</v>
+        <v>-2.3925730000000001E-4</v>
       </c>
       <c r="C323" s="1">
         <v>0</v>
@@ -8176,7 +8178,7 @@
       </c>
       <c r="J323" s="2">
         <f t="shared" ref="J323:J386" si="5" xml:space="preserve"> ABS(F324-B324)</f>
-        <v>3.4537000000000039E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -8184,7 +8186,7 @@
         <v>1.31235195554673E-7</v>
       </c>
       <c r="B324" s="1">
-        <v>-1.070728E-4</v>
+        <v>-1.105265E-4</v>
       </c>
       <c r="C324" s="1">
         <v>0</v>
@@ -8200,7 +8202,7 @@
       </c>
       <c r="J324" s="2">
         <f t="shared" si="5"/>
-        <v>3.5522800000000001E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -8208,7 +8210,7 @@
         <v>1.3143050805467301E-7</v>
       </c>
       <c r="B325" s="1">
-        <v>8.026241E-6</v>
+        <v>4.4739609999999998E-6</v>
       </c>
       <c r="C325" s="1">
         <v>0</v>
@@ -8224,7 +8226,7 @@
       </c>
       <c r="J325" s="2">
         <f t="shared" si="5"/>
-        <v>3.5745000000000113E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -8232,7 +8234,7 @@
         <v>1.3162582055467301E-7</v>
       </c>
       <c r="B326" s="1">
-        <v>1.0891610000000001E-4</v>
+        <v>1.0534159999999999E-4</v>
       </c>
       <c r="C326" s="1">
         <v>0</v>
@@ -8248,7 +8250,7 @@
       </c>
       <c r="J326" s="2">
         <f t="shared" si="5"/>
-        <v>3.5292999999999935E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -8256,7 +8258,7 @@
         <v>1.3182113305467299E-7</v>
       </c>
       <c r="B327" s="1">
-        <v>1.9550810000000001E-4</v>
+        <v>1.9197880000000001E-4</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
@@ -8272,7 +8274,7 @@
       </c>
       <c r="J327" s="2">
         <f t="shared" si="5"/>
-        <v>3.4257999999999901E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -8280,7 +8282,7 @@
         <v>1.32016445554673E-7</v>
       </c>
       <c r="B328" s="1">
-        <v>2.679828E-4</v>
+        <v>2.6455700000000001E-4</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
@@ -8296,7 +8298,7 @@
       </c>
       <c r="J328" s="2">
         <f t="shared" si="5"/>
-        <v>3.2729999999999804E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -8304,7 +8306,7 @@
         <v>1.32211758054673E-7</v>
       </c>
       <c r="B329" s="1">
-        <v>3.2675439999999998E-4</v>
+        <v>3.234814E-4</v>
       </c>
       <c r="C329" s="1">
         <v>0</v>
@@ -8320,7 +8322,7 @@
       </c>
       <c r="J329" s="2">
         <f t="shared" si="5"/>
-        <v>3.0796000000000035E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -8328,7 +8330,7 @@
         <v>1.3240707055467301E-7</v>
       </c>
       <c r="B330" s="1">
-        <v>3.7243390000000001E-4</v>
+        <v>3.6935430000000001E-4</v>
       </c>
       <c r="C330" s="1">
         <v>0</v>
@@ -8344,7 +8346,7 @@
       </c>
       <c r="J330" s="2">
         <f t="shared" si="5"/>
-        <v>2.8542000000000107E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -8352,7 +8354,7 @@
         <v>1.3260238305467301E-7</v>
       </c>
       <c r="B331" s="1">
-        <v>4.0579489999999999E-4</v>
+        <v>4.0294069999999998E-4</v>
       </c>
       <c r="C331" s="1">
         <v>0</v>
@@ -8368,7 +8370,7 @@
       </c>
       <c r="J331" s="2">
         <f t="shared" si="5"/>
-        <v>2.6046000000000055E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -8376,7 +8378,7 @@
         <v>1.3279769555467299E-7</v>
       </c>
       <c r="B332" s="1">
-        <v>4.2773909999999999E-4</v>
+        <v>4.2513449999999998E-4</v>
       </c>
       <c r="C332" s="1">
         <v>0</v>
@@ -8392,7 +8394,7 @@
       </c>
       <c r="J332" s="2">
         <f t="shared" si="5"/>
-        <v>2.3385000000000116E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -8400,7 +8402,7 @@
         <v>1.3299300805467299E-7</v>
       </c>
       <c r="B333" s="1">
-        <v>4.3926460000000002E-4</v>
+        <v>4.369261E-4</v>
       </c>
       <c r="C333" s="1">
         <v>0</v>
@@ -8416,7 +8418,7 @@
       </c>
       <c r="J333" s="2">
         <f t="shared" si="5"/>
-        <v>2.0625999999999826E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -8424,7 +8426,7 @@
         <v>1.33188320554673E-7</v>
       </c>
       <c r="B334" s="1">
-        <v>4.4143589999999999E-4</v>
+        <v>4.393733E-4</v>
       </c>
       <c r="C334" s="1">
         <v>0</v>
@@ -8440,7 +8442,7 @@
       </c>
       <c r="J334" s="2">
         <f t="shared" si="5"/>
-        <v>1.7830999999999728E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -8448,7 +8450,7 @@
         <v>1.33383633054673E-7</v>
       </c>
       <c r="B335" s="1">
-        <v>4.3535669999999999E-4</v>
+        <v>4.3357360000000002E-4</v>
       </c>
       <c r="C335" s="1">
         <v>0</v>
@@ -8464,7 +8466,7 @@
       </c>
       <c r="J335" s="2">
         <f t="shared" si="5"/>
-        <v>1.5053999999999805E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -8472,7 +8474,7 @@
         <v>1.3357894555467301E-7</v>
       </c>
       <c r="B336" s="1">
-        <v>4.2214519999999998E-4</v>
+        <v>4.206398E-4</v>
       </c>
       <c r="C336" s="1">
         <v>0</v>
@@ -8488,7 +8490,7 @@
       </c>
       <c r="J336" s="2">
         <f t="shared" si="5"/>
-        <v>1.2344999999999761E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -8496,7 +8498,7 @@
         <v>1.3377425805467301E-7</v>
       </c>
       <c r="B337" s="1">
-        <v>4.0291179999999999E-4</v>
+        <v>4.0167730000000002E-4</v>
       </c>
       <c r="C337" s="1">
         <v>0</v>
@@ -8512,7 +8514,7 @@
       </c>
       <c r="J337" s="2">
         <f t="shared" si="5"/>
-        <v>9.7440000000002238E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -8520,7 +8522,7 @@
         <v>1.3396957055467299E-7</v>
       </c>
       <c r="B338" s="1">
-        <v>3.7874030000000002E-4</v>
+        <v>3.7776589999999999E-4</v>
       </c>
       <c r="C338" s="1">
         <v>0</v>
@@ -8536,7 +8538,7 @@
       </c>
       <c r="J338" s="2">
         <f t="shared" si="5"/>
-        <v>7.2839999999999797E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -8544,7 +8546,7 @@
         <v>1.34164883054673E-7</v>
       </c>
       <c r="B339" s="1">
-        <v>3.506712E-4</v>
+        <v>3.4994280000000001E-4</v>
       </c>
       <c r="C339" s="1">
         <v>0</v>
@@ -8560,7 +8562,7 @@
       </c>
       <c r="J339" s="2">
         <f t="shared" si="5"/>
-        <v>4.9929999999999029E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -8568,7 +8570,7 @@
         <v>1.34360195554673E-7</v>
       </c>
       <c r="B340" s="1">
-        <v>3.1968859999999998E-4</v>
+        <v>3.1918929999999999E-4</v>
       </c>
       <c r="C340" s="1">
         <v>0</v>
@@ -8584,7 +8586,7 @@
       </c>
       <c r="J340" s="2">
         <f t="shared" si="5"/>
-        <v>2.8909999999997662E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -8592,7 +8594,7 @@
         <v>1.34555508054673E-7</v>
       </c>
       <c r="B341" s="1">
-        <v>2.8670879999999999E-4</v>
+        <v>2.8641970000000002E-4</v>
       </c>
       <c r="C341" s="1">
         <v>0</v>
@@ -8608,7 +8610,7 @@
       </c>
       <c r="J341" s="2">
         <f t="shared" si="5"/>
-        <v>9.9400000000014668E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -8616,7 +8618,7 @@
         <v>1.3475082055467301E-7</v>
       </c>
       <c r="B342" s="1">
-        <v>2.5257259999999999E-4</v>
+        <v>2.5247319999999998E-4</v>
       </c>
       <c r="C342" s="1">
         <v>0</v>
@@ -8632,7 +8634,7 @@
       </c>
       <c r="J342" s="2">
         <f t="shared" si="5"/>
-        <v>6.8899999999995224E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -8640,7 +8642,7 @@
         <v>1.3494613305467299E-7</v>
       </c>
       <c r="B343" s="1">
-        <v>2.1803870000000001E-4</v>
+        <v>2.1810760000000001E-4</v>
       </c>
       <c r="C343" s="1">
         <v>0</v>
@@ -8656,7 +8658,7 @@
       </c>
       <c r="J343" s="2">
         <f t="shared" si="5"/>
-        <v>2.1539999999999797E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -8664,7 +8666,7 @@
         <v>1.3514144555467299E-7</v>
       </c>
       <c r="B344" s="1">
-        <v>1.8378040000000001E-4</v>
+        <v>1.839958E-4</v>
       </c>
       <c r="C344" s="1">
         <v>0</v>
@@ -8680,7 +8682,7 @@
       </c>
       <c r="J344" s="2">
         <f t="shared" si="5"/>
-        <v>3.4009999999999358E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -8688,7 +8690,7 @@
         <v>1.35336758054673E-7</v>
       </c>
       <c r="B345" s="1">
-        <v>1.5038369999999999E-4</v>
+        <v>1.5072379999999999E-4</v>
       </c>
       <c r="C345" s="1">
         <v>0</v>
@@ -8704,7 +8706,7 @@
       </c>
       <c r="J345" s="2">
         <f t="shared" si="5"/>
-        <v>4.4339999999999647E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -8712,7 +8714,7 @@
         <v>1.35532070554673E-7</v>
       </c>
       <c r="B346" s="1">
-        <v>1.183474E-4</v>
+        <v>1.1879079999999999E-4</v>
       </c>
       <c r="C346" s="1">
         <v>0</v>
@@ -8728,7 +8730,7 @@
       </c>
       <c r="J346" s="2">
         <f t="shared" si="5"/>
-        <v>5.2610999999999554E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -8736,7 +8738,7 @@
         <v>1.3572738305467301E-7</v>
       </c>
       <c r="B347" s="1">
-        <v>8.8084869999999999E-5</v>
+        <v>8.8610979999999994E-5</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
@@ -8752,7 +8754,7 @@
       </c>
       <c r="J347" s="2">
         <f t="shared" si="5"/>
-        <v>5.8916000000000166E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -8760,7 +8762,7 @@
         <v>1.3592269555467301E-7</v>
       </c>
       <c r="B348" s="1">
-        <v>5.9926739999999999E-5</v>
+        <v>6.0515900000000001E-5</v>
       </c>
       <c r="C348" s="1">
         <v>0</v>
@@ -8776,7 +8778,7 @@
       </c>
       <c r="J348" s="2">
         <f t="shared" si="5"/>
-        <v>6.338500000000041E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -8784,7 +8786,7 @@
         <v>1.3611800805467299E-7</v>
       </c>
       <c r="B349" s="1">
-        <v>3.4125229999999999E-5</v>
+        <v>3.4759080000000003E-5</v>
       </c>
       <c r="C349" s="1">
         <v>0</v>
@@ -8800,7 +8802,7 @@
       </c>
       <c r="J349" s="2">
         <f t="shared" si="5"/>
-        <v>6.6160999999999958E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -8808,7 +8810,7 @@
         <v>1.3631332055467299E-7</v>
       </c>
       <c r="B350" s="1">
-        <v>1.085911E-5</v>
+        <v>1.1520719999999999E-5</v>
       </c>
       <c r="C350" s="1">
         <v>0</v>
@@ -8824,7 +8826,7 @@
       </c>
       <c r="J350" s="2">
         <f t="shared" si="5"/>
-        <v>6.7401900000000097E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -8832,7 +8834,7 @@
         <v>1.36508633054673E-7</v>
       </c>
       <c r="B351" s="1">
-        <v>-9.7605620000000004E-6</v>
+        <v>-9.0865429999999994E-6</v>
       </c>
       <c r="C351" s="1">
         <v>0</v>
@@ -8848,7 +8850,7 @@
       </c>
       <c r="J351" s="2">
         <f t="shared" si="5"/>
-        <v>6.727100000000019E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -8856,7 +8858,7 @@
         <v>1.36703945554673E-7</v>
       </c>
       <c r="B352" s="1">
-        <v>-2.7684150000000002E-5</v>
+        <v>-2.701144E-5</v>
       </c>
       <c r="C352" s="1">
         <v>0</v>
@@ -8872,7 +8874,7 @@
       </c>
       <c r="J352" s="2">
         <f t="shared" si="5"/>
-        <v>6.5941000000000323E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -8880,7 +8882,7 @@
         <v>1.3689925805467301E-7</v>
       </c>
       <c r="B353" s="1">
-        <v>-4.2916890000000002E-5</v>
+        <v>-4.2257479999999998E-5</v>
       </c>
       <c r="C353" s="1">
         <v>0</v>
@@ -8896,7 +8898,7 @@
       </c>
       <c r="J353" s="2">
         <f t="shared" si="5"/>
-        <v>6.3578999999999752E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -8904,7 +8906,7 @@
         <v>1.3709457055467299E-7</v>
       </c>
       <c r="B354" s="1">
-        <v>-5.551201E-5</v>
+        <v>-5.4876220000000003E-5</v>
       </c>
       <c r="C354" s="1">
         <v>0</v>
@@ -8920,7 +8922,7 @@
       </c>
       <c r="J354" s="2">
         <f t="shared" si="5"/>
-        <v>6.0354999999999188E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -8928,7 +8930,7 @@
         <v>1.3728988305467299E-7</v>
       </c>
       <c r="B355" s="1">
-        <v>-6.5563969999999996E-5</v>
+        <v>-6.4960420000000004E-5</v>
       </c>
       <c r="C355" s="1">
         <v>0</v>
@@ -8944,7 +8946,7 @@
       </c>
       <c r="J355" s="2">
         <f t="shared" si="5"/>
-        <v>5.6436000000000149E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -8952,7 +8954,7 @@
         <v>1.37485195554673E-7</v>
       </c>
       <c r="B356" s="1">
-        <v>-7.3201710000000002E-5</v>
+        <v>-7.263735E-5</v>
       </c>
       <c r="C356" s="1">
         <v>0</v>
@@ -8968,7 +8970,7 @@
       </c>
       <c r="J356" s="2">
         <f t="shared" si="5"/>
-        <v>5.1973000000001001E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -8976,7 +8978,7 @@
         <v>1.37680508054673E-7</v>
       </c>
       <c r="B357" s="1">
-        <v>-7.8582040000000004E-5</v>
+        <v>-7.8062309999999994E-5</v>
       </c>
       <c r="C357" s="1">
         <v>0</v>
@@ -8992,7 +8994,7 @@
       </c>
       <c r="J357" s="2">
         <f t="shared" si="5"/>
-        <v>4.7114999999999972E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -9000,7 +9002,7 @@
         <v>1.3787582055467301E-7</v>
       </c>
       <c r="B358" s="1">
-        <v>-8.1883469999999994E-5</v>
+        <v>-8.1412319999999994E-5</v>
       </c>
       <c r="C358" s="1">
         <v>0</v>
@@ -9016,7 +9018,7 @@
       </c>
       <c r="J358" s="2">
         <f t="shared" si="5"/>
-        <v>4.1998999999999867E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -9024,7 +9026,7 @@
         <v>1.3807113305467301E-7</v>
       </c>
       <c r="B359" s="1">
-        <v>-8.330031E-5</v>
+        <v>-8.2880320000000001E-5</v>
       </c>
       <c r="C359" s="1">
         <v>0</v>
@@ -9040,7 +9042,7 @@
       </c>
       <c r="J359" s="2">
         <f t="shared" si="5"/>
-        <v>3.6747999999999805E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -9048,7 +9050,7 @@
         <v>1.3826644555467299E-7</v>
       </c>
       <c r="B360" s="1">
-        <v>-8.3037209999999999E-5</v>
+        <v>-8.2669730000000001E-5</v>
       </c>
       <c r="C360" s="1">
         <v>0</v>
@@ -9064,7 +9066,7 @@
       </c>
       <c r="J360" s="2">
         <f t="shared" si="5"/>
-        <v>3.1473000000000774E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -9072,7 +9074,7 @@
         <v>1.3846175805467299E-7</v>
       </c>
       <c r="B361" s="1">
-        <v>-8.1304190000000006E-5</v>
+        <v>-8.0989459999999998E-5</v>
       </c>
       <c r="C361" s="1">
         <v>0</v>
@@ -9088,7 +9090,7 @@
       </c>
       <c r="J361" s="2">
         <f t="shared" si="5"/>
-        <v>2.6274999999998999E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -9096,7 +9098,7 @@
         <v>1.38657070554673E-7</v>
       </c>
       <c r="B362" s="1">
-        <v>-7.8312219999999993E-5</v>
+        <v>-7.8049470000000003E-5</v>
       </c>
       <c r="C362" s="1">
         <v>0</v>
@@ -9112,7 +9114,7 @@
       </c>
       <c r="J362" s="2">
         <f t="shared" si="5"/>
-        <v>2.1236000000000215E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -9120,7 +9122,7 @@
         <v>1.38852383054673E-7</v>
       </c>
       <c r="B363" s="1">
-        <v>-7.4269240000000007E-5</v>
+        <v>-7.4056880000000004E-5</v>
       </c>
       <c r="C363" s="1">
         <v>0</v>
@@ -9136,7 +9138,7 @@
       </c>
       <c r="J363" s="2">
         <f t="shared" si="5"/>
-        <v>1.6430000000000112E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -9144,7 +9146,7 @@
         <v>1.3904769555467301E-7</v>
       </c>
       <c r="B364" s="1">
-        <v>-6.9376819999999998E-5</v>
+        <v>-6.9212519999999996E-5</v>
       </c>
       <c r="C364" s="1">
         <v>0</v>
@@ -9160,7 +9162,7 @@
       </c>
       <c r="J364" s="2">
         <f t="shared" si="5"/>
-        <v>1.1910999999999758E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -9168,7 +9170,7 @@
         <v>1.3924300805467301E-7</v>
       </c>
       <c r="B365" s="1">
-        <v>-6.382723E-5</v>
+        <v>-6.3708120000000002E-5</v>
       </c>
       <c r="C365" s="1">
         <v>0</v>
@@ -9184,7 +9186,7 @@
       </c>
       <c r="J365" s="2">
         <f t="shared" si="5"/>
-        <v>7.731000000000079E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -9192,7 +9194,7 @@
         <v>1.3943832055467299E-7</v>
       </c>
       <c r="B366" s="1">
-        <v>-5.7801189999999997E-5</v>
+        <v>-5.7723879999999997E-5</v>
       </c>
       <c r="C366" s="1">
         <v>0</v>
@@ -9208,7 +9210,7 @@
       </c>
       <c r="J366" s="2">
         <f t="shared" si="5"/>
-        <v>3.9209999999998562E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -9216,7 +9218,7 @@
         <v>1.39633633054673E-7</v>
       </c>
       <c r="B367" s="1">
-        <v>-5.1465889999999997E-5</v>
+        <v>-5.1426679999999999E-5</v>
       </c>
       <c r="C367" s="1">
         <v>0</v>
@@ -9232,7 +9234,7 @@
       </c>
       <c r="J367" s="2">
         <f t="shared" si="5"/>
-        <v>5.0700000000023079E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -9240,7 +9242,7 @@
         <v>1.39828945554673E-7</v>
       </c>
       <c r="B368" s="1">
-        <v>-4.4973740000000002E-5</v>
+        <v>-4.496867E-5</v>
       </c>
       <c r="C368" s="1">
         <v>0</v>
@@ -9256,7 +9258,7 @@
       </c>
       <c r="J368" s="2">
         <f t="shared" si="5"/>
-        <v>2.5010000000001307E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -9264,7 +9266,7 @@
         <v>1.4002425805467301E-7</v>
       </c>
       <c r="B369" s="1">
-        <v>-3.8461329999999999E-5</v>
+        <v>-3.8486340000000001E-5</v>
       </c>
       <c r="C369" s="1">
         <v>0</v>
@@ -9280,7 +9282,7 @@
       </c>
       <c r="J369" s="2">
         <f t="shared" si="5"/>
-        <v>5.094999999999991E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -9288,7 +9290,7 @@
         <v>1.4021957055467301E-7</v>
       </c>
       <c r="B370" s="1">
-        <v>-3.2048950000000001E-5</v>
+        <v>-3.2099900000000001E-5</v>
       </c>
       <c r="C370" s="1">
         <v>0</v>
@@ -9304,7 +9306,7 @@
       </c>
       <c r="J370" s="2">
         <f t="shared" si="5"/>
-        <v>7.2800000000000387E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -9312,7 +9314,7 @@
         <v>1.4041488305467299E-7</v>
       </c>
       <c r="B371" s="1">
-        <v>-2.5840350000000001E-5</v>
+        <v>-2.5913150000000001E-5</v>
       </c>
       <c r="C371" s="1">
         <v>0</v>
@@ -9328,7 +9330,7 @@
       </c>
       <c r="J371" s="2">
         <f t="shared" si="5"/>
-        <v>9.0670000000000269E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -9336,7 +9338,7 @@
         <v>1.4061019555467299E-7</v>
       </c>
       <c r="B372" s="1">
-        <v>-1.9922959999999999E-5</v>
+        <v>-2.001363E-5</v>
       </c>
       <c r="C372" s="1">
         <v>0</v>
@@ -9352,7 +9354,7 @@
       </c>
       <c r="J372" s="2">
         <f t="shared" si="5"/>
-        <v>1.0470999999999988E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -9360,7 +9362,7 @@
         <v>1.40805508054673E-7</v>
       </c>
       <c r="B373" s="1">
-        <v>-1.4368229999999999E-5</v>
+        <v>-1.4472939999999999E-5</v>
       </c>
       <c r="C373" s="1">
         <v>0</v>
@@ -9376,7 +9378,7 @@
       </c>
       <c r="J373" s="2">
         <f t="shared" si="5"/>
-        <v>1.1513800000000059E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -9384,7 +9386,7 @@
         <v>1.41000820554673E-7</v>
       </c>
       <c r="B374" s="1">
-        <v>-9.2323219999999999E-6</v>
+        <v>-9.3474600000000005E-6</v>
       </c>
       <c r="C374" s="1">
         <v>0</v>
@@ -9400,7 +9402,7 @@
       </c>
       <c r="J374" s="2">
         <f t="shared" si="5"/>
-        <v>1.2221300000000001E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -9408,7 +9410,7 @@
         <v>1.4119613305467301E-7</v>
       </c>
       <c r="B375" s="1">
-        <v>-4.5569660000000001E-6</v>
+        <v>-4.6791790000000001E-6</v>
       </c>
       <c r="C375" s="1">
         <v>0</v>
@@ -9424,7 +9426,7 @@
       </c>
       <c r="J375" s="2">
         <f t="shared" si="5"/>
-        <v>1.2621190000000003E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -9432,7 +9434,7 @@
         <v>1.4139144555467301E-7</v>
       </c>
       <c r="B376" s="1">
-        <v>-3.7046079999999999E-7</v>
+        <v>-4.9667270000000001E-7</v>
       </c>
       <c r="C376" s="1">
         <v>0</v>
@@ -9448,7 +9450,7 @@
       </c>
       <c r="J376" s="2">
         <f t="shared" si="5"/>
-        <v>1.2743899999999985E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -9456,7 +9458,7 @@
         <v>1.4158675805467299E-7</v>
       </c>
       <c r="B377" s="1">
-        <v>3.3111969999999999E-6</v>
+        <v>3.183758E-6</v>
       </c>
       <c r="C377" s="1">
         <v>0</v>
@@ -9472,7 +9474,7 @@
       </c>
       <c r="J377" s="2">
         <f t="shared" si="5"/>
-        <v>1.2621200000000007E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -9480,7 +9482,7 @@
         <v>1.41782070554673E-7</v>
       </c>
       <c r="B378" s="1">
-        <v>6.4830980000000002E-6</v>
+        <v>6.3568860000000001E-6</v>
       </c>
       <c r="C378" s="1">
         <v>0</v>
@@ -9496,7 +9498,7 @@
       </c>
       <c r="J378" s="2">
         <f t="shared" si="5"/>
-        <v>1.2285099999999941E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -9504,7 +9506,7 @@
         <v>1.41977383054673E-7</v>
       </c>
       <c r="B379" s="1">
-        <v>9.1501519999999996E-6</v>
+        <v>9.0273010000000002E-6</v>
       </c>
       <c r="C379" s="1">
         <v>0</v>
@@ -9520,7 +9522,7 @@
       </c>
       <c r="J379" s="2">
         <f t="shared" si="5"/>
-        <v>1.1099999999999945E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -9528,7 +9530,7 @@
         <v>1.4236800805467301E-7</v>
       </c>
       <c r="B380" s="1">
-        <v>1.3030729999999999E-5</v>
+        <v>1.291973E-5</v>
       </c>
       <c r="C380" s="1">
         <v>0</v>
@@ -9544,7 +9546,7 @@
       </c>
       <c r="J380" s="2">
         <f t="shared" si="5"/>
-        <v>9.4379999999998917E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -9552,7 +9554,7 @@
         <v>1.4275863305467299E-7</v>
       </c>
       <c r="B381" s="1">
-        <v>1.5139929999999999E-5</v>
+        <v>1.504555E-5</v>
       </c>
       <c r="C381" s="1">
         <v>0</v>
@@ -9568,7 +9570,7 @@
       </c>
       <c r="J381" s="2">
         <f t="shared" si="5"/>
-        <v>7.5180000000000862E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -9576,7 +9578,7 @@
         <v>1.43149258054673E-7</v>
       </c>
       <c r="B382" s="1">
-        <v>1.5741590000000001E-5</v>
+        <v>1.566641E-5</v>
       </c>
       <c r="C382" s="1">
         <v>0</v>
@@ -9592,7 +9594,7 @@
       </c>
       <c r="J382" s="2">
         <f t="shared" si="5"/>
-        <v>5.5309999999999984E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -9600,7 +9602,7 @@
         <v>1.4353988305467301E-7</v>
       </c>
       <c r="B383" s="1">
-        <v>1.514094E-5</v>
+        <v>1.508563E-5</v>
       </c>
       <c r="C383" s="1">
         <v>0</v>
@@ -9616,7 +9618,7 @@
       </c>
       <c r="J383" s="2">
         <f t="shared" si="5"/>
-        <v>3.6249999999999865E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -9624,7 +9626,7 @@
         <v>1.4393050805467299E-7</v>
       </c>
       <c r="B384" s="1">
-        <v>1.3654449999999999E-5</v>
+        <v>1.3618199999999999E-5</v>
       </c>
       <c r="C384" s="1">
         <v>0</v>
@@ -9640,7 +9642,7 @@
       </c>
       <c r="J384" s="2">
         <f t="shared" si="5"/>
-        <v>1.9129999999999934E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
@@ -9648,7 +9650,7 @@
         <v>1.44321133054673E-7</v>
       </c>
       <c r="B385" s="1">
-        <v>1.158589E-5</v>
+        <v>1.156676E-5</v>
       </c>
       <c r="C385" s="1">
         <v>0</v>
@@ -9664,7 +9666,7 @@
       </c>
       <c r="J385" s="2">
         <f t="shared" si="5"/>
-        <v>1.4980000000011163E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
@@ -9672,7 +9674,7 @@
         <v>1.4490707055467299E-7</v>
       </c>
       <c r="B386" s="1">
-        <v>7.9784699999999995E-6</v>
+        <v>7.9799680000000006E-6</v>
       </c>
       <c r="C386" s="1">
         <v>0</v>
@@ -9688,7 +9690,7 @@
       </c>
       <c r="J386" s="2">
         <f t="shared" si="5"/>
-        <v>1.5235000000000202E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
@@ -9696,7 +9698,7 @@
         <v>1.4549300805467301E-7</v>
       </c>
       <c r="B387" s="1">
-        <v>4.406429E-6</v>
+        <v>4.4216640000000002E-6</v>
       </c>
       <c r="C387" s="1">
         <v>0</v>
@@ -9712,7 +9714,7 @@
       </c>
       <c r="J387" s="2">
         <f t="shared" ref="J387:J412" si="6" xml:space="preserve"> ABS(F388-B388)</f>
-        <v>2.2366000000000109E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
@@ -9720,7 +9722,7 @@
         <v>1.4607894555467299E-7</v>
       </c>
       <c r="B388" s="1">
-        <v>1.365119E-6</v>
+        <v>1.3874850000000001E-6</v>
       </c>
       <c r="C388" s="1">
         <v>0</v>
@@ -9736,7 +9738,7 @@
       </c>
       <c r="J388" s="2">
         <f t="shared" si="6"/>
-        <v>2.3041120000000006E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
@@ -9744,7 +9746,7 @@
         <v>1.46441668768959E-7</v>
       </c>
       <c r="B389" s="1">
-        <v>-6.5644570000000005E-8</v>
+        <v>-4.2603449999999999E-8</v>
       </c>
       <c r="C389" s="1">
         <v>0</v>
@@ -9760,7 +9762,7 @@
       </c>
       <c r="J389" s="2">
         <f t="shared" si="6"/>
-        <v>2.2887000000000091E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
@@ -9768,7 +9770,7 @@
         <v>1.4680439198324499E-7</v>
       </c>
       <c r="B390" s="1">
-        <v>-1.218392E-6</v>
+        <v>-1.195505E-6</v>
       </c>
       <c r="C390" s="1">
         <v>0</v>
@@ -9784,7 +9786,7 @@
       </c>
       <c r="J390" s="2">
         <f t="shared" si="6"/>
-        <v>2.1903000000000034E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
@@ -9792,7 +9794,7 @@
         <v>1.47167115197531E-7</v>
       </c>
       <c r="B391" s="1">
-        <v>-2.0931229999999999E-6</v>
+        <v>-2.0712199999999999E-6</v>
       </c>
       <c r="C391" s="1">
         <v>0</v>
@@ -9808,7 +9810,7 @@
       </c>
       <c r="J391" s="2">
         <f t="shared" si="6"/>
-        <v>2.0089999999999752E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
@@ -9816,7 +9818,7 @@
         <v>1.47529838411816E-7</v>
       </c>
       <c r="B392" s="1">
-        <v>-2.6898379999999998E-6</v>
+        <v>-2.6697480000000001E-6</v>
       </c>
       <c r="C392" s="1">
         <v>0</v>
@@ -9832,7 +9834,7 @@
       </c>
       <c r="J392" s="2">
         <f t="shared" si="6"/>
-        <v>1.7446999999999852E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
@@ -9840,7 +9842,7 @@
         <v>1.4789256162610199E-7</v>
       </c>
       <c r="B393" s="1">
-        <v>-3.008537E-6</v>
+        <v>-2.9910900000000002E-6</v>
       </c>
       <c r="C393" s="1">
         <v>0</v>
@@ -9856,7 +9858,7 @@
       </c>
       <c r="J393" s="2">
         <f t="shared" si="6"/>
-        <v>1.3975999999999966E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
@@ -9864,7 +9866,7 @@
         <v>1.48255284840388E-7</v>
       </c>
       <c r="B394" s="1">
-        <v>-3.0492200000000001E-6</v>
+        <v>-3.0352440000000001E-6</v>
       </c>
       <c r="C394" s="1">
         <v>0</v>
@@ -9880,7 +9882,7 @@
       </c>
       <c r="J394" s="2">
         <f t="shared" si="6"/>
-        <v>9.6740000000002228E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
@@ -9888,7 +9890,7 @@
         <v>1.48618008054673E-7</v>
       </c>
       <c r="B395" s="1">
-        <v>-2.8118860000000002E-6</v>
+        <v>-2.8022119999999999E-6</v>
       </c>
       <c r="C395" s="1">
         <v>0</v>
@@ -9904,7 +9906,7 @@
       </c>
       <c r="J395" s="2">
         <f t="shared" si="6"/>
-        <v>4.9970000000000811E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
@@ -9912,7 +9914,7 @@
         <v>1.4914814198324499E-7</v>
       </c>
       <c r="B396" s="1">
-        <v>-2.1968459999999999E-6</v>
+        <v>-2.1918489999999998E-6</v>
       </c>
       <c r="C396" s="1">
         <v>0</v>
@@ -9928,7 +9930,7 @@
       </c>
       <c r="J396" s="2">
         <f t="shared" si="6"/>
-        <v>1.2290000000000436E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
@@ -9936,7 +9938,7 @@
         <v>1.49678275911816E-7</v>
       </c>
       <c r="B397" s="1">
-        <v>-1.631239E-6</v>
+        <v>-1.6300099999999999E-6</v>
       </c>
       <c r="C397" s="1">
         <v>0</v>
@@ -9952,7 +9954,7 @@
       </c>
       <c r="J397" s="2">
         <f t="shared" si="6"/>
-        <v>1.6329999999999723E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
@@ -9960,7 +9962,7 @@
         <v>1.5020840984038799E-7</v>
       </c>
       <c r="B398" s="1">
-        <v>-1.115064E-6</v>
+        <v>-1.116697E-6</v>
       </c>
       <c r="C398" s="1">
         <v>0</v>
@@ -9976,7 +9978,7 @@
       </c>
       <c r="J398" s="2">
         <f t="shared" si="6"/>
-        <v>3.5862999999999135E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
@@ -9984,7 +9986,7 @@
         <v>1.50738543768959E-7</v>
       </c>
       <c r="B399" s="1">
-        <v>-6.4832120000000004E-7</v>
+        <v>-6.5190749999999995E-7</v>
       </c>
       <c r="C399" s="1">
         <v>0</v>
@@ -10000,7 +10002,7 @@
       </c>
       <c r="J399" s="2">
         <f t="shared" si="6"/>
-        <v>4.6320000000000113E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
@@ -10008,7 +10010,7 @@
         <v>1.5126867769753099E-7</v>
       </c>
       <c r="B400" s="1">
-        <v>-2.3101119999999999E-7</v>
+        <v>-2.356432E-7</v>
       </c>
       <c r="C400" s="1">
         <v>0</v>
@@ -10024,7 +10026,7 @@
       </c>
       <c r="J400" s="2">
         <f t="shared" si="6"/>
-        <v>4.769700000000006E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
@@ -10032,7 +10034,7 @@
         <v>1.51798811626102E-7</v>
       </c>
       <c r="B401" s="1">
-        <v>1.3686609999999999E-7</v>
+        <v>1.3209639999999999E-7</v>
       </c>
       <c r="C401" s="1">
         <v>0</v>
@@ -10048,7 +10050,7 @@
       </c>
       <c r="J401" s="2">
         <f t="shared" si="6"/>
-        <v>3.9997999999999985E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
@@ -10056,7 +10058,7 @@
         <v>1.5232894555467399E-7</v>
       </c>
       <c r="B402" s="1">
-        <v>4.5531099999999999E-7</v>
+        <v>4.5131119999999999E-7</v>
       </c>
       <c r="C402" s="1">
         <v>0</v>
@@ -10072,7 +10074,7 @@
       </c>
       <c r="J402" s="2">
         <f t="shared" si="6"/>
-        <v>2.193000000000025E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
@@ -10080,7 +10082,7 @@
         <v>1.5333340984038799E-7</v>
       </c>
       <c r="B403" s="1">
-        <v>3.5415970000000001E-7</v>
+        <v>3.5196669999999999E-7</v>
       </c>
       <c r="C403" s="1">
         <v>0</v>
@@ -10096,7 +10098,7 @@
       </c>
       <c r="J403" s="2">
         <f t="shared" si="6"/>
-        <v>7.9240000000001972E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
@@ -10104,7 +10106,7 @@
         <v>1.5433787412610201E-7</v>
       </c>
       <c r="B404" s="1">
-        <v>2.6142220000000001E-7</v>
+        <v>2.6062979999999999E-7</v>
       </c>
       <c r="C404" s="1">
         <v>0</v>
@@ -10120,7 +10122,7 @@
       </c>
       <c r="J404" s="2">
         <f t="shared" si="6"/>
-        <v>2.0189999999999865E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
@@ -10128,7 +10130,7 @@
         <v>1.5534233841181699E-7</v>
       </c>
       <c r="B405" s="1">
-        <v>1.7709859999999999E-7</v>
+        <v>1.7730049999999999E-7</v>
       </c>
       <c r="C405" s="1">
         <v>0</v>
@@ -10144,7 +10146,7 @@
       </c>
       <c r="J405" s="2">
         <f t="shared" si="6"/>
-        <v>7.8979999999999824E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
@@ -10152,7 +10154,7 @@
         <v>1.5634680269753101E-7</v>
       </c>
       <c r="B406" s="1">
-        <v>1.011889E-7</v>
+        <v>1.019787E-7</v>
       </c>
       <c r="C406" s="1">
         <v>0</v>
@@ -10168,7 +10170,7 @@
       </c>
       <c r="J406" s="2">
         <f t="shared" si="6"/>
-        <v>9.7131999999999867E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
@@ -10176,7 +10178,7 @@
         <v>1.5735126698324501E-7</v>
       </c>
       <c r="B407" s="1">
-        <v>3.3693100000000001E-8</v>
+        <v>3.466442E-8</v>
       </c>
       <c r="C407" s="1">
         <v>0</v>
@@ -10192,7 +10194,7 @@
       </c>
       <c r="J407" s="2">
         <f t="shared" si="6"/>
-        <v>7.466200000000013E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
@@ -10200,7 +10202,7 @@
         <v>1.58355731268959E-7</v>
       </c>
       <c r="B408" s="1">
-        <v>-2.5388880000000001E-8</v>
+        <v>-2.464226E-8</v>
       </c>
       <c r="C408" s="1">
         <v>0</v>
@@ -10216,7 +10218,7 @@
       </c>
       <c r="J408" s="2">
         <f t="shared" si="6"/>
-        <v>1.1559999999999079E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
@@ -10224,7 +10226,7 @@
         <v>1.59360195554674E-7</v>
       </c>
       <c r="B409" s="1">
-        <v>-7.6056989999999994E-8</v>
+        <v>-7.5941390000000003E-8</v>
       </c>
       <c r="C409" s="1">
         <v>0</v>
@@ -10240,7 +10242,7 @@
       </c>
       <c r="J409" s="2">
         <f t="shared" si="6"/>
-        <v>4.7995000000000544E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
@@ -10248,7 +10250,7 @@
         <v>1.9295394555467501E-7</v>
       </c>
       <c r="B410" s="1">
-        <v>9.0012350000000001E-13</v>
+        <v>8.9532399999999995E-13</v>
       </c>
       <c r="C410" s="1">
         <v>0</v>
@@ -10264,7 +10266,7 @@
       </c>
       <c r="J410" s="2">
         <f t="shared" si="6"/>
-        <v>1.8299999999986906E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
@@ -10272,7 +10274,7 @@
         <v>1.9998519555467499E-7</v>
       </c>
       <c r="B411" s="1">
-        <v>-7.8984730000000002E-14</v>
+        <v>-7.8986560000000001E-14</v>
       </c>
       <c r="C411" s="1">
         <v>0</v>
